--- a/图像数据.xlsx
+++ b/图像数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cancer_star/Desktop/smart_car_19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81699640-6A86-4F9C-85A7-2B7E034CC8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9FFD19-BB6A-2146-A1E4-68B9C1B01BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$70</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$R$1:$R$70</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$S$1:$S$70</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$T$1:$T$70</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +33,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1136,1009 +1139,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>圆环状态</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>3</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$1:$J$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>54</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D068-48CD-9334-6CE18FA8F591}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$1:$K$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>159</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D068-48CD-9334-6CE18FA8F591}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$1:$L$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>106</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D068-48CD-9334-6CE18FA8F591}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1397024879"/>
-        <c:axId val="1397023439"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1397024879"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1397023439"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1397023439"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1397024879"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2598,7 +1598,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3069,7 +2069,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3860,7 +2860,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4618,7 +3618,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -5376,7 +4376,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6134,7 +5134,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6892,7 +5892,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -7650,7 +6650,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8322,6 +7322,764 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1440998960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$72:$W$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E30-4A05-91AA-2E1C79B53BE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$72:$X$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E30-4A05-91AA-2E1C79B53BE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1440997040"/>
+        <c:axId val="512925871"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1440997040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512925871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512925871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1440997040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9505,765 +9263,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$W$72:$W$141</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E30-4A05-91AA-2E1C79B53BE7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$X$72:$X$141</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>159</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E30-4A05-91AA-2E1C79B53BE7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1440997040"/>
-        <c:axId val="512925871"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1440997040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="512925871"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="512925871"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1440997040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9123489499653908E-2"/>
+          <c:y val="3.9792070239007736E-2"/>
+          <c:w val="0.94215248481476799"/>
+          <c:h val="0.92474475646296428"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -10975,7 +9985,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -11733,7 +10743,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -12491,7 +11501,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -13249,7 +12259,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -13921,6 +12931,758 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1195714576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$143:$A$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C85F-FB49-91DD-3E039BF033F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$143:$B$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C85F-FB49-91DD-3E039BF033F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1432362767"/>
+        <c:axId val="1432364207"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1432362767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1432364207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1432364207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1432362767"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16105,7 +15867,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -16346,7 +16120,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -16587,7 +16373,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -16823,6 +16621,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1400636351"/>
         <c:axId val="1400637311"/>
@@ -19228,6 +19027,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>圆环状态</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19276,232 +19104,223 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$143:$A$212</c:f>
+              <c:f>Sheet1!$J$1:$J$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="57">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="62">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="66">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>151</c:v>
+                <c:pt idx="69">
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19509,7 +19328,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2731-401A-BDD4-0BEDD2D82700}"/>
+              <c16:uniqueId val="{00000000-D068-48CD-9334-6CE18FA8F591}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19526,232 +19345,223 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$143:$B$212</c:f>
+              <c:f>Sheet1!$K$1:$K$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>125</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>119</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>113</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>99</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>94</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>92</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>89</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>87</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>85</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>84</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>82</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>81</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>79</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>78</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>77</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>75</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>74</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>73</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>72</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>71</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>70</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>69</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>66</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>65</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>64</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>64</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>63</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>62</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>61</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>61</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>60</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>60</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>60</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>59</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>59</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>59</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>58</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>58</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>57</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>57</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>56</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>56</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>56</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>55</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>55</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>54</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>54</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>53</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>53</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>53</c:v>
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19759,7 +19569,248 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2731-401A-BDD4-0BEDD2D82700}"/>
+              <c16:uniqueId val="{00000001-D068-48CD-9334-6CE18FA8F591}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$L$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D068-48CD-9334-6CE18FA8F591}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19771,13 +19822,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1432362767"/>
-        <c:axId val="1432364207"/>
+        <c:axId val="1397024879"/>
+        <c:axId val="1397023439"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1432362767"/>
+        <c:axId val="1397024879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19819,7 +19869,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1432364207"/>
+        <c:crossAx val="1397023439"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19827,7 +19877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1432364207"/>
+        <c:axId val="1397023439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19878,7 +19928,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1432362767"/>
+        <c:crossAx val="1397024879"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21998,7 +22048,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -22106,11 +22156,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -22121,11 +22166,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -22157,9 +22197,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -33155,7 +33192,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -33263,6 +33300,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -33273,6 +33315,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -33304,6 +33351,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -33816,16 +33866,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>475129</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>351304</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>58031</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33968,44 +34018,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>568037</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>443345</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>27709</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="图表 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC8C450-EB14-4007-81B2-CCC0C18D77EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>102</xdr:row>
@@ -34036,7 +34048,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34074,7 +34086,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34112,7 +34124,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34120,16 +34132,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>96981</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>604981</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>159327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>421340</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>243540</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34150,7 +34162,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34188,7 +34200,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34226,7 +34238,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34264,6 +34276,44 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>177799</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>580570</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="图表 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CC9C06-E9C2-4DC2-8E01-FEC945F4922E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
@@ -34272,23 +34322,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>326570</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>475342</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="图表 16">
+        <xdr:cNvPr id="18" name="图表 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CC9C06-E9C2-4DC2-8E01-FEC945F4922E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0827ADB9-4B3D-4F5F-87F8-3F310994883C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34310,54 +34360,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>43542</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="图表 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0827ADB9-4B3D-4F5F-87F8-3F310994883C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>602342</xdr:colOff>
       <xdr:row>218</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:rowOff>137886</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34378,7 +34390,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34416,7 +34428,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34424,16 +34436,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>249</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>635001</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>397934</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34454,7 +34466,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34492,7 +34504,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34530,7 +34542,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34544,10 +34556,10 @@
       <xdr:rowOff>174170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>555170</xdr:colOff>
-      <xdr:row>333</xdr:row>
-      <xdr:rowOff>163284</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34555,6 +34567,44 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C44756-6F99-4637-9806-C44BA34A33AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>452716</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>49304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>452717</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="图表 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4A8A14-A1EA-472C-A3C1-A43266565444}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34577,22 +34627,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>376516</xdr:colOff>
+      <xdr:colOff>559661</xdr:colOff>
       <xdr:row>308</xdr:row>
-      <xdr:rowOff>125505</xdr:rowOff>
+      <xdr:rowOff>172202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>376517</xdr:colOff>
-      <xdr:row>333</xdr:row>
-      <xdr:rowOff>53787</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215254</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="25" name="图表 24">
+        <xdr:cNvPr id="26" name="图表 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4A8A14-A1EA-472C-A3C1-A43266565444}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D78B1E6-79FB-7F4B-A041-E37F2E9FD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34884,9 +34934,9 @@
       <selection activeCell="AJ72" sqref="AJ72:AJ141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37">
       <c r="A1">
         <v>1</v>
       </c>
@@ -34969,7 +35019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="A2">
         <v>2</v>
       </c>
@@ -35052,7 +35102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="A3">
         <v>3</v>
       </c>
@@ -35135,7 +35185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37">
       <c r="A4">
         <v>4</v>
       </c>
@@ -35218,7 +35268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37">
       <c r="A5">
         <v>5</v>
       </c>
@@ -35301,7 +35351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37">
       <c r="A6">
         <v>6</v>
       </c>
@@ -35384,7 +35434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="A7">
         <v>7</v>
       </c>
@@ -35467,7 +35517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37">
       <c r="A8">
         <v>8</v>
       </c>
@@ -35550,7 +35600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="A9">
         <v>9</v>
       </c>
@@ -35633,7 +35683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37">
       <c r="A10">
         <v>10</v>
       </c>
@@ -35716,7 +35766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37">
       <c r="A11">
         <v>11</v>
       </c>
@@ -35799,7 +35849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37">
       <c r="A12">
         <v>12</v>
       </c>
@@ -35882,7 +35932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37">
       <c r="A13">
         <v>13</v>
       </c>
@@ -35965,7 +36015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37">
       <c r="A14">
         <v>14</v>
       </c>
@@ -36048,7 +36098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37">
       <c r="A15">
         <v>15</v>
       </c>
@@ -36131,7 +36181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37">
       <c r="A16">
         <v>16</v>
       </c>
@@ -36214,7 +36264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37">
       <c r="A17">
         <v>17</v>
       </c>
@@ -36297,7 +36347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37">
       <c r="A18">
         <v>18</v>
       </c>
@@ -36380,7 +36430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37">
       <c r="A19">
         <v>19</v>
       </c>
@@ -36463,7 +36513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37">
       <c r="A20">
         <v>20</v>
       </c>
@@ -36546,7 +36596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37">
       <c r="A21">
         <v>21</v>
       </c>
@@ -36629,7 +36679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37">
       <c r="A22">
         <v>22</v>
       </c>
@@ -36712,7 +36762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37">
       <c r="A23">
         <v>23</v>
       </c>
@@ -36795,7 +36845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37">
       <c r="A24">
         <v>24</v>
       </c>
@@ -36878,7 +36928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37">
       <c r="A25">
         <v>25</v>
       </c>
@@ -36961,7 +37011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37">
       <c r="A26">
         <v>26</v>
       </c>
@@ -37044,7 +37094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37">
       <c r="A27">
         <v>27</v>
       </c>
@@ -37127,7 +37177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37">
       <c r="A28">
         <v>28</v>
       </c>
@@ -37210,7 +37260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37">
       <c r="A29">
         <v>29</v>
       </c>
@@ -37293,7 +37343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37">
       <c r="A30">
         <v>30</v>
       </c>
@@ -37376,7 +37426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37">
       <c r="A31">
         <v>31</v>
       </c>
@@ -37459,7 +37509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37">
       <c r="A32">
         <v>32</v>
       </c>
@@ -37542,7 +37592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37">
       <c r="A33">
         <v>33</v>
       </c>
@@ -37625,7 +37675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37">
       <c r="A34">
         <v>34</v>
       </c>
@@ -37708,7 +37758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37">
       <c r="A35">
         <v>35</v>
       </c>
@@ -37791,7 +37841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37">
       <c r="A36">
         <v>36</v>
       </c>
@@ -37874,7 +37924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37">
       <c r="A37">
         <v>37</v>
       </c>
@@ -37957,7 +38007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37">
       <c r="A38">
         <v>38</v>
       </c>
@@ -38040,7 +38090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37">
       <c r="A39">
         <v>39</v>
       </c>
@@ -38123,7 +38173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37">
       <c r="A40">
         <v>40</v>
       </c>
@@ -38206,7 +38256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37">
       <c r="A41">
         <v>41</v>
       </c>
@@ -38289,7 +38339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37">
       <c r="A42">
         <v>42</v>
       </c>
@@ -38372,7 +38422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37">
       <c r="A43">
         <v>43</v>
       </c>
@@ -38455,7 +38505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37">
       <c r="A44">
         <v>44</v>
       </c>
@@ -38538,7 +38588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37">
       <c r="A45">
         <v>45</v>
       </c>
@@ -38621,7 +38671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37">
       <c r="A46">
         <v>46</v>
       </c>
@@ -38704,7 +38754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37">
       <c r="A47">
         <v>47</v>
       </c>
@@ -38787,7 +38837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37">
       <c r="A48">
         <v>48</v>
       </c>
@@ -38870,7 +38920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37">
       <c r="A49">
         <v>49</v>
       </c>
@@ -38953,7 +39003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37">
       <c r="A50">
         <v>50</v>
       </c>
@@ -39036,7 +39086,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37">
       <c r="A51">
         <v>51</v>
       </c>
@@ -39119,7 +39169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37">
       <c r="A52">
         <v>52</v>
       </c>
@@ -39202,7 +39252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37">
       <c r="A53">
         <v>53</v>
       </c>
@@ -39285,7 +39335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37">
       <c r="A54">
         <v>54</v>
       </c>
@@ -39368,7 +39418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37">
       <c r="A55">
         <v>55</v>
       </c>
@@ -39451,7 +39501,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37">
       <c r="A56">
         <v>56</v>
       </c>
@@ -39534,7 +39584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37">
       <c r="A57">
         <v>57</v>
       </c>
@@ -39617,7 +39667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37">
       <c r="A58">
         <v>58</v>
       </c>
@@ -39700,7 +39750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37">
       <c r="A59">
         <v>59</v>
       </c>
@@ -39783,7 +39833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37">
       <c r="A60">
         <v>60</v>
       </c>
@@ -39866,7 +39916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37">
       <c r="A61">
         <v>61</v>
       </c>
@@ -39949,7 +39999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37">
       <c r="A62">
         <v>62</v>
       </c>
@@ -40032,7 +40082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37">
       <c r="A63">
         <v>63</v>
       </c>
@@ -40115,7 +40165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37">
       <c r="A64">
         <v>64</v>
       </c>
@@ -40198,7 +40248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37">
       <c r="A65">
         <v>65</v>
       </c>
@@ -40281,7 +40331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37">
       <c r="A66">
         <v>66</v>
       </c>
@@ -40364,7 +40414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37">
       <c r="A67">
         <v>67</v>
       </c>
@@ -40447,7 +40497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37">
       <c r="A68">
         <v>68</v>
       </c>
@@ -40530,7 +40580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37">
       <c r="A69">
         <v>69</v>
       </c>
@@ -40613,7 +40663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37">
       <c r="A70">
         <v>70</v>
       </c>
@@ -40696,7 +40746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37">
       <c r="B72">
         <v>0</v>
       </c>
@@ -40767,7 +40817,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37">
       <c r="B73">
         <v>0</v>
       </c>
@@ -40841,7 +40891,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37">
       <c r="B74">
         <v>0</v>
       </c>
@@ -40915,7 +40965,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37">
       <c r="B75">
         <v>0</v>
       </c>
@@ -40989,7 +41039,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37">
       <c r="B76">
         <v>0</v>
       </c>
@@ -41063,7 +41113,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37">
       <c r="B77">
         <v>0</v>
       </c>
@@ -41137,7 +41187,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37">
       <c r="B78">
         <v>0</v>
       </c>
@@ -41211,7 +41261,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37">
       <c r="B79">
         <v>0</v>
       </c>
@@ -41285,7 +41335,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37">
       <c r="B80">
         <v>0</v>
       </c>
@@ -41359,7 +41409,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:36">
       <c r="B81">
         <v>0</v>
       </c>
@@ -41433,7 +41483,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:36">
       <c r="B82">
         <v>0</v>
       </c>
@@ -41507,7 +41557,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:36">
       <c r="B83">
         <v>0</v>
       </c>
@@ -41581,7 +41631,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:36">
       <c r="B84">
         <v>0</v>
       </c>
@@ -41655,7 +41705,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:36">
       <c r="B85">
         <v>0</v>
       </c>
@@ -41729,7 +41779,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:36">
       <c r="B86">
         <v>0</v>
       </c>
@@ -41803,7 +41853,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:36">
       <c r="B87">
         <v>0</v>
       </c>
@@ -41877,7 +41927,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:36">
       <c r="B88">
         <v>17</v>
       </c>
@@ -41951,7 +42001,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:36">
       <c r="B89">
         <v>8</v>
       </c>
@@ -42025,7 +42075,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:36">
       <c r="B90">
         <v>1</v>
       </c>
@@ -42099,7 +42149,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:36">
       <c r="B91">
         <v>0</v>
       </c>
@@ -42173,7 +42223,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:36">
       <c r="B92">
         <v>0</v>
       </c>
@@ -42247,7 +42297,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:36">
       <c r="B93">
         <v>0</v>
       </c>
@@ -42321,7 +42371,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:36">
       <c r="B94">
         <v>0</v>
       </c>
@@ -42395,7 +42445,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:36">
       <c r="B95">
         <v>0</v>
       </c>
@@ -42469,7 +42519,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:36">
       <c r="B96">
         <v>0</v>
       </c>
@@ -42543,7 +42593,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:36">
       <c r="B97">
         <v>0</v>
       </c>
@@ -42617,7 +42667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:36">
       <c r="B98">
         <v>0</v>
       </c>
@@ -42691,7 +42741,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:36">
       <c r="B99">
         <v>0</v>
       </c>
@@ -42765,7 +42815,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="100" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:36">
       <c r="B100">
         <v>0</v>
       </c>
@@ -42839,7 +42889,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:36">
       <c r="B101">
         <v>0</v>
       </c>
@@ -42913,7 +42963,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:36">
       <c r="B102">
         <v>0</v>
       </c>
@@ -42987,7 +43037,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:36">
       <c r="B103">
         <v>0</v>
       </c>
@@ -43061,7 +43111,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:36">
       <c r="B104">
         <v>0</v>
       </c>
@@ -43135,7 +43185,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:36">
       <c r="B105">
         <v>0</v>
       </c>
@@ -43209,7 +43259,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:36">
       <c r="B106">
         <v>0</v>
       </c>
@@ -43283,7 +43333,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:36">
       <c r="B107">
         <v>0</v>
       </c>
@@ -43357,7 +43407,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:36">
       <c r="B108">
         <v>0</v>
       </c>
@@ -43431,7 +43481,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:36">
       <c r="B109">
         <v>0</v>
       </c>
@@ -43505,7 +43555,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:36">
       <c r="B110">
         <v>0</v>
       </c>
@@ -43579,7 +43629,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:36">
       <c r="B111">
         <v>0</v>
       </c>
@@ -43653,7 +43703,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:36">
       <c r="B112">
         <v>0</v>
       </c>
@@ -43727,7 +43777,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:36">
       <c r="B113">
         <v>13</v>
       </c>
@@ -43801,7 +43851,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:36">
       <c r="B114">
         <v>20</v>
       </c>
@@ -43875,7 +43925,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:36">
       <c r="B115">
         <v>25</v>
       </c>
@@ -43949,7 +43999,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:36">
       <c r="B116">
         <v>28</v>
       </c>
@@ -44023,7 +44073,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:36">
       <c r="B117">
         <v>31</v>
       </c>
@@ -44097,7 +44147,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:36">
       <c r="B118">
         <v>34</v>
       </c>
@@ -44171,7 +44221,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="119" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:36">
       <c r="B119">
         <v>37</v>
       </c>
@@ -44245,7 +44295,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:36">
       <c r="B120">
         <v>38</v>
       </c>
@@ -44319,7 +44369,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:36">
       <c r="B121">
         <v>40</v>
       </c>
@@ -44393,7 +44443,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:36">
       <c r="B122">
         <v>41</v>
       </c>
@@ -44467,7 +44517,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="123" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:36">
       <c r="B123">
         <v>43</v>
       </c>
@@ -44541,7 +44591,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:36">
       <c r="B124">
         <v>44</v>
       </c>
@@ -44615,7 +44665,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:36">
       <c r="B125">
         <v>45</v>
       </c>
@@ -44689,7 +44739,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:36">
       <c r="B126">
         <v>46</v>
       </c>
@@ -44763,7 +44813,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:36">
       <c r="B127">
         <v>47</v>
       </c>
@@ -44837,7 +44887,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:36">
       <c r="B128">
         <v>48</v>
       </c>
@@ -44911,7 +44961,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36">
       <c r="B129">
         <v>48</v>
       </c>
@@ -44985,7 +45035,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36">
       <c r="B130">
         <v>49</v>
       </c>
@@ -45059,7 +45109,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36">
       <c r="B131">
         <v>50</v>
       </c>
@@ -45133,7 +45183,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36">
       <c r="B132">
         <v>50</v>
       </c>
@@ -45207,7 +45257,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36">
       <c r="B133">
         <v>50</v>
       </c>
@@ -45281,7 +45331,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36">
       <c r="B134">
         <v>51</v>
       </c>
@@ -45355,7 +45405,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36">
       <c r="B135">
         <v>51</v>
       </c>
@@ -45429,7 +45479,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36">
       <c r="B136">
         <v>51</v>
       </c>
@@ -45503,7 +45553,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36">
       <c r="B137">
         <v>51</v>
       </c>
@@ -45577,7 +45627,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36">
       <c r="B138">
         <v>51</v>
       </c>
@@ -45651,7 +45701,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36">
       <c r="B139">
         <v>51</v>
       </c>
@@ -45725,7 +45775,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36">
       <c r="B140">
         <v>51</v>
       </c>
@@ -45799,7 +45849,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36">
       <c r="B141">
         <v>51</v>
       </c>
@@ -45873,7 +45923,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36">
       <c r="A143">
         <v>61</v>
       </c>
@@ -45899,7 +45949,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36">
       <c r="A144">
         <v>58</v>
       </c>
@@ -45925,7 +45975,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>56</v>
       </c>
@@ -45951,7 +46001,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>54</v>
       </c>
@@ -45977,7 +46027,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>52</v>
       </c>
@@ -46003,7 +46053,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>51</v>
       </c>
@@ -46029,7 +46079,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>49</v>
       </c>
@@ -46055,7 +46105,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>159</v>
       </c>
@@ -46081,7 +46131,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>159</v>
       </c>
@@ -46107,7 +46157,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>159</v>
       </c>
@@ -46133,7 +46183,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>159</v>
       </c>
@@ -46159,7 +46209,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>159</v>
       </c>
@@ -46185,7 +46235,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155">
         <v>159</v>
       </c>
@@ -46211,7 +46261,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156">
         <v>159</v>
       </c>
@@ -46237,7 +46287,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157">
         <v>159</v>
       </c>
@@ -46263,7 +46313,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158">
         <v>159</v>
       </c>
@@ -46289,7 +46339,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159">
         <v>159</v>
       </c>
@@ -46315,7 +46365,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160">
         <v>159</v>
       </c>
@@ -46341,7 +46391,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161">
         <v>159</v>
       </c>
@@ -46367,7 +46417,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>159</v>
       </c>
@@ -46393,7 +46443,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>159</v>
       </c>
@@ -46419,7 +46469,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164">
         <v>159</v>
       </c>
@@ -46445,7 +46495,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165">
         <v>159</v>
       </c>
@@ -46471,7 +46521,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166">
         <v>159</v>
       </c>
@@ -46497,7 +46547,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167">
         <v>159</v>
       </c>
@@ -46523,7 +46573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168">
         <v>155</v>
       </c>
@@ -46549,7 +46599,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169">
         <v>150</v>
       </c>
@@ -46575,7 +46625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170">
         <v>147</v>
       </c>
@@ -46601,7 +46651,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171">
         <v>145</v>
       </c>
@@ -46627,7 +46677,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>143</v>
       </c>
@@ -46653,7 +46703,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>142</v>
       </c>
@@ -46679,7 +46729,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174">
         <v>141</v>
       </c>
@@ -46705,7 +46755,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175">
         <v>140</v>
       </c>
@@ -46731,7 +46781,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176">
         <v>139</v>
       </c>
@@ -46757,7 +46807,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177">
         <v>138</v>
       </c>
@@ -46783,7 +46833,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178">
         <v>138</v>
       </c>
@@ -46809,7 +46859,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179">
         <v>138</v>
       </c>
@@ -46835,7 +46885,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180">
         <v>137</v>
       </c>
@@ -46861,7 +46911,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181">
         <v>137</v>
       </c>
@@ -46887,7 +46937,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182">
         <v>137</v>
       </c>
@@ -46913,7 +46963,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183">
         <v>137</v>
       </c>
@@ -46939,7 +46989,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11">
       <c r="A184">
         <v>138</v>
       </c>
@@ -46965,7 +47015,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11">
       <c r="A185">
         <v>138</v>
       </c>
@@ -46991,7 +47041,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
       <c r="A186">
         <v>138</v>
       </c>
@@ -47017,7 +47067,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11">
       <c r="A187">
         <v>138</v>
       </c>
@@ -47043,7 +47093,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="A188">
         <v>139</v>
       </c>
@@ -47069,7 +47119,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="A189">
         <v>139</v>
       </c>
@@ -47095,7 +47145,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11">
       <c r="A190">
         <v>140</v>
       </c>
@@ -47121,7 +47171,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191">
         <v>140</v>
       </c>
@@ -47147,7 +47197,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192">
         <v>141</v>
       </c>
@@ -47173,7 +47223,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>141</v>
       </c>
@@ -47199,7 +47249,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>142</v>
       </c>
@@ -47225,7 +47275,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>142</v>
       </c>
@@ -47251,7 +47301,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>143</v>
       </c>
@@ -47277,7 +47327,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>143</v>
       </c>
@@ -47303,7 +47353,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>144</v>
       </c>
@@ -47329,7 +47379,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11">
       <c r="A199">
         <v>145</v>
       </c>
@@ -47355,7 +47405,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11">
       <c r="A200">
         <v>145</v>
       </c>
@@ -47381,7 +47431,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11">
       <c r="A201">
         <v>146</v>
       </c>
@@ -47407,7 +47457,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
       <c r="A202">
         <v>146</v>
       </c>
@@ -47433,7 +47483,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11">
       <c r="A203">
         <v>147</v>
       </c>
@@ -47459,7 +47509,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11">
       <c r="A204">
         <v>147</v>
       </c>
@@ -47485,7 +47535,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11">
       <c r="A205">
         <v>148</v>
       </c>
@@ -47511,7 +47561,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11">
       <c r="A206">
         <v>148</v>
       </c>
@@ -47537,7 +47587,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="A207">
         <v>149</v>
       </c>
@@ -47563,7 +47613,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11">
       <c r="A208">
         <v>149</v>
       </c>
@@ -47589,7 +47639,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11">
       <c r="A209">
         <v>150</v>
       </c>
@@ -47615,7 +47665,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11">
       <c r="A210">
         <v>151</v>
       </c>
@@ -47641,7 +47691,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11">
       <c r="A211">
         <v>151</v>
       </c>
@@ -47667,7 +47717,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11">
       <c r="D212">
         <v>159</v>
       </c>
@@ -47698,43 +47748,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648B726F-516E-4C11-AD84-AB99ED4A1061}">
   <dimension ref="N263:N287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J258" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N272" sqref="N272"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AO352" sqref="AO352"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="263" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="14:14">
       <c r="N263">
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="14:14">
       <c r="N264">
         <v>86</v>
       </c>
     </row>
-    <row r="266" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="14:14">
       <c r="N266">
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="14:14">
       <c r="N267">
         <v>68</v>
       </c>
     </row>
-    <row r="269" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="14:14">
       <c r="N269">
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="14:14">
       <c r="N270">
         <v>81</v>
       </c>
     </row>
-    <row r="287" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="14:14">
       <c r="N287">
         <v>36</v>
       </c>

--- a/图像数据.xlsx
+++ b/图像数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cancer_star/Desktop/smart_car_19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9FFD19-BB6A-2146-A1E4-68B9C1B01BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A1C314-A885-EF43-85B3-58F27FC59CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$70</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$R$1:$R$70</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$S$1:$S$70</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$T$1:$T$70</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$1:$F$70</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$1:$G$70</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$1:$H$70</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$1:$F$70</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$1:$G$70</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$1:$H$70</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -14868,7 +14871,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -15109,7 +15124,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -15350,7 +15377,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -15586,6 +15625,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1431192735"/>
         <c:axId val="1431191775"/>
@@ -33828,16 +33868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>519953</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>547810</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>103981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>131269</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>35380</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>154061</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33950,8 +33990,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>138043</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -47748,8 +47788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648B726F-516E-4C11-AD84-AB99ED4A1061}">
   <dimension ref="N263:N287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AO352" sqref="AO352"/>
+    <sheetView tabSelected="1" topLeftCell="AQ11" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BF19" sqref="BF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/图像数据.xlsx
+++ b/图像数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cancer_star/Desktop/smart_car_19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\smart_car_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A1C314-A885-EF43-85B3-58F27FC59CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1C35AC-8890-4C48-956F-5BDEFD82D0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$70</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$1:$F$70</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$1:$G$70</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$1:$H$70</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$1:$F$70</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$1:$G$70</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$1:$H$70</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +30,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13686,6 +13680,1552 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1432362767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$72:$AL$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DD5-42FE-B5D1-818FF242590B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AM$72:$AM$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DD5-42FE-B5D1-818FF242590B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="719296687"/>
+        <c:axId val="719289487"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="719296687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719289487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="719289487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719296687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>使硬件错误的序列</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AM$1:$AM$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80FC-4ABD-8443-C6C5F1C8EE93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AN$1:$AN$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-80FC-4ABD-8443-C6C5F1C8EE93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="719297647"/>
+        <c:axId val="719315407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="719297647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719315407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="719315407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719297647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20775,6 +22315,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -29646,6 +31266,1012 @@
 </file>
 
 <file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -34702,6 +37328,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16C384F-2758-42FF-8E29-39DED5C57865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>370114</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="图表 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A52E2ED-4C56-47B2-9017-073421443FEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -34968,15 +37670,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK212"/>
+  <dimension ref="A1:AQ212"/>
   <sheetViews>
-    <sheetView topLeftCell="R56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AJ72" sqref="AJ72:AJ141"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AQ27" sqref="AQ27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -35058,8 +37760,20 @@
       <c r="AK1">
         <v>1</v>
       </c>
+      <c r="AM1">
+        <v>0</v>
+      </c>
+      <c r="AN1">
+        <v>159</v>
+      </c>
+      <c r="AP1">
+        <v>42</v>
+      </c>
+      <c r="AQ1">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -35141,8 +37855,20 @@
       <c r="AK2">
         <v>0</v>
       </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>159</v>
+      </c>
+      <c r="AP2">
+        <v>85</v>
+      </c>
+      <c r="AQ2">
+        <v>159</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -35224,8 +37950,20 @@
       <c r="AK3">
         <v>0</v>
       </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>159</v>
+      </c>
+      <c r="AP3">
+        <v>86</v>
+      </c>
+      <c r="AQ3">
+        <v>126</v>
+      </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -35307,8 +38045,20 @@
       <c r="AK4">
         <v>0</v>
       </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>159</v>
+      </c>
+      <c r="AP4">
+        <v>87</v>
+      </c>
+      <c r="AQ4">
+        <v>128</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -35390,8 +38140,20 @@
       <c r="AK5">
         <v>0</v>
       </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>159</v>
+      </c>
+      <c r="AP5">
+        <v>89</v>
+      </c>
+      <c r="AQ5">
+        <v>130</v>
+      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -35473,8 +38235,20 @@
       <c r="AK6">
         <v>0</v>
       </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>159</v>
+      </c>
+      <c r="AP6">
+        <v>91</v>
+      </c>
+      <c r="AQ6">
+        <v>132</v>
+      </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -35556,8 +38330,20 @@
       <c r="AK7">
         <v>0</v>
       </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>159</v>
+      </c>
+      <c r="AP7">
+        <v>92</v>
+      </c>
+      <c r="AQ7">
+        <v>134</v>
+      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -35639,8 +38425,20 @@
       <c r="AK8">
         <v>8</v>
       </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>159</v>
+      </c>
+      <c r="AP8">
+        <v>93</v>
+      </c>
+      <c r="AQ8">
+        <v>135</v>
+      </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -35722,8 +38520,20 @@
       <c r="AK9">
         <v>13</v>
       </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>159</v>
+      </c>
+      <c r="AP9">
+        <v>94</v>
+      </c>
+      <c r="AQ9">
+        <v>137</v>
+      </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -35805,8 +38615,20 @@
       <c r="AK10">
         <v>18</v>
       </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>159</v>
+      </c>
+      <c r="AP10">
+        <v>95</v>
+      </c>
+      <c r="AQ10">
+        <v>138</v>
+      </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -35888,8 +38710,20 @@
       <c r="AK11">
         <v>25</v>
       </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>159</v>
+      </c>
+      <c r="AP11">
+        <v>95</v>
+      </c>
+      <c r="AQ11">
+        <v>139</v>
+      </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -35971,8 +38805,20 @@
       <c r="AK12">
         <v>29</v>
       </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>159</v>
+      </c>
+      <c r="AP12">
+        <v>95</v>
+      </c>
+      <c r="AQ12">
+        <v>140</v>
+      </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -36054,8 +38900,20 @@
       <c r="AK13">
         <v>30</v>
       </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>159</v>
+      </c>
+      <c r="AP13">
+        <v>95</v>
+      </c>
+      <c r="AQ13">
+        <v>141</v>
+      </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -36137,8 +38995,20 @@
       <c r="AK14">
         <v>32</v>
       </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>159</v>
+      </c>
+      <c r="AP14">
+        <v>95</v>
+      </c>
+      <c r="AQ14">
+        <v>142</v>
+      </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -36220,8 +39090,20 @@
       <c r="AK15">
         <v>33</v>
       </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>159</v>
+      </c>
+      <c r="AP15">
+        <v>95</v>
+      </c>
+      <c r="AQ15">
+        <v>143</v>
+      </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -36303,8 +39185,20 @@
       <c r="AK16">
         <v>33</v>
       </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>159</v>
+      </c>
+      <c r="AP16">
+        <v>94</v>
+      </c>
+      <c r="AQ16">
+        <v>143</v>
+      </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -36386,8 +39280,20 @@
       <c r="AK17">
         <v>34</v>
       </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>159</v>
+      </c>
+      <c r="AP17">
+        <v>93</v>
+      </c>
+      <c r="AQ17">
+        <v>144</v>
+      </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -36469,8 +39375,20 @@
       <c r="AK18">
         <v>34</v>
       </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>159</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>144</v>
+      </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -36552,8 +39470,20 @@
       <c r="AK19">
         <v>34</v>
       </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>159</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>145</v>
+      </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -36635,8 +39565,20 @@
       <c r="AK20">
         <v>33</v>
       </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>159</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>145</v>
+      </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -36718,8 +39660,20 @@
       <c r="AK21">
         <v>27</v>
       </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>159</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>145</v>
+      </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -36801,8 +39755,20 @@
       <c r="AK22">
         <v>21</v>
       </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>159</v>
+      </c>
+      <c r="AP22">
+        <v>16</v>
+      </c>
+      <c r="AQ22">
+        <v>145</v>
+      </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -36884,8 +39850,20 @@
       <c r="AK23">
         <v>21</v>
       </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>159</v>
+      </c>
+      <c r="AP23">
+        <v>13</v>
+      </c>
+      <c r="AQ23">
+        <v>150</v>
+      </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -36967,8 +39945,20 @@
       <c r="AK24">
         <v>21</v>
       </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>159</v>
+      </c>
+      <c r="AP24">
+        <v>13</v>
+      </c>
+      <c r="AQ24">
+        <v>159</v>
+      </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -37050,8 +40040,20 @@
       <c r="AK25">
         <v>21</v>
       </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>159</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>159</v>
+      </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -37133,8 +40135,20 @@
       <c r="AK26">
         <v>22</v>
       </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>159</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>159</v>
+      </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -37216,8 +40230,17 @@
       <c r="AK27">
         <v>22</v>
       </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>159</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -37299,8 +40322,17 @@
       <c r="AK28">
         <v>22</v>
       </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>159</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -37382,8 +40414,17 @@
       <c r="AK29">
         <v>22</v>
       </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>159</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -37465,8 +40506,17 @@
       <c r="AK30">
         <v>23</v>
       </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>159</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -37548,8 +40598,17 @@
       <c r="AK31">
         <v>23</v>
       </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>159</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -37631,8 +40690,17 @@
       <c r="AK32">
         <v>23</v>
       </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>159</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -37714,8 +40782,17 @@
       <c r="AK33">
         <v>23</v>
       </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>159</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -37797,8 +40874,17 @@
       <c r="AK34">
         <v>24</v>
       </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>159</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -37880,8 +40966,17 @@
       <c r="AK35">
         <v>24</v>
       </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>159</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -37963,8 +41058,17 @@
       <c r="AK36">
         <v>24</v>
       </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>159</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -38046,8 +41150,17 @@
       <c r="AK37">
         <v>24</v>
       </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>159</v>
+      </c>
+      <c r="AP37">
+        <v>3</v>
+      </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -38129,8 +41242,17 @@
       <c r="AK38">
         <v>25</v>
       </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>159</v>
+      </c>
+      <c r="AP38">
+        <v>7</v>
+      </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -38212,8 +41334,17 @@
       <c r="AK39">
         <v>25</v>
       </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>159</v>
+      </c>
+      <c r="AP39">
+        <v>13</v>
+      </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -38295,8 +41426,17 @@
       <c r="AK40">
         <v>25</v>
       </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>159</v>
+      </c>
+      <c r="AP40">
+        <v>19</v>
+      </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -38378,8 +41518,17 @@
       <c r="AK41">
         <v>25</v>
       </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>159</v>
+      </c>
+      <c r="AP41">
+        <v>26</v>
+      </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -38461,8 +41610,17 @@
       <c r="AK42">
         <v>26</v>
       </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>159</v>
+      </c>
+      <c r="AP42">
+        <v>33</v>
+      </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -38544,8 +41702,17 @@
       <c r="AK43">
         <v>26</v>
       </c>
+      <c r="AM43">
+        <v>16</v>
+      </c>
+      <c r="AN43">
+        <v>141</v>
+      </c>
+      <c r="AP43">
+        <v>40</v>
+      </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -38627,8 +41794,17 @@
       <c r="AK44">
         <v>26</v>
       </c>
+      <c r="AM44">
+        <v>33</v>
+      </c>
+      <c r="AN44">
+        <v>159</v>
+      </c>
+      <c r="AP44">
+        <v>47</v>
+      </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -38710,8 +41886,17 @@
       <c r="AK45">
         <v>26</v>
       </c>
+      <c r="AM45">
+        <v>53</v>
+      </c>
+      <c r="AN45">
+        <v>159</v>
+      </c>
+      <c r="AP45">
+        <v>55</v>
+      </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -38793,8 +41978,17 @@
       <c r="AK46">
         <v>27</v>
       </c>
+      <c r="AM46">
+        <v>69</v>
+      </c>
+      <c r="AN46">
+        <v>159</v>
+      </c>
+      <c r="AP46">
+        <v>65</v>
+      </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -38876,8 +42070,17 @@
       <c r="AK47">
         <v>27</v>
       </c>
+      <c r="AM47">
+        <v>70</v>
+      </c>
+      <c r="AN47">
+        <v>159</v>
+      </c>
+      <c r="AP47">
+        <v>67</v>
+      </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -38959,8 +42162,17 @@
       <c r="AK48">
         <v>27</v>
       </c>
+      <c r="AM48">
+        <v>69</v>
+      </c>
+      <c r="AN48">
+        <v>159</v>
+      </c>
+      <c r="AP48">
+        <v>67</v>
+      </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -39042,8 +42254,17 @@
       <c r="AK49">
         <v>28</v>
       </c>
+      <c r="AM49">
+        <v>69</v>
+      </c>
+      <c r="AN49">
+        <v>159</v>
+      </c>
+      <c r="AP49">
+        <v>67</v>
+      </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -39125,8 +42346,17 @@
       <c r="AK50">
         <v>28</v>
       </c>
+      <c r="AM50">
+        <v>69</v>
+      </c>
+      <c r="AN50">
+        <v>159</v>
+      </c>
+      <c r="AP50">
+        <v>66</v>
+      </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -39208,8 +42438,17 @@
       <c r="AK51">
         <v>28</v>
       </c>
+      <c r="AM51">
+        <v>68</v>
+      </c>
+      <c r="AN51">
+        <v>159</v>
+      </c>
+      <c r="AP51">
+        <v>66</v>
+      </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -39291,8 +42530,17 @@
       <c r="AK52">
         <v>28</v>
       </c>
+      <c r="AM52">
+        <v>67</v>
+      </c>
+      <c r="AN52">
+        <v>159</v>
+      </c>
+      <c r="AP52">
+        <v>65</v>
+      </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -39374,8 +42622,17 @@
       <c r="AK53">
         <v>28</v>
       </c>
+      <c r="AM53">
+        <v>67</v>
+      </c>
+      <c r="AN53">
+        <v>159</v>
+      </c>
+      <c r="AP53">
+        <v>64</v>
+      </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -39457,8 +42714,17 @@
       <c r="AK54">
         <v>28</v>
       </c>
+      <c r="AM54">
+        <v>66</v>
+      </c>
+      <c r="AN54">
+        <v>153</v>
+      </c>
+      <c r="AP54">
+        <v>63</v>
+      </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -39540,8 +42806,17 @@
       <c r="AK55">
         <v>28</v>
       </c>
+      <c r="AM55">
+        <v>66</v>
+      </c>
+      <c r="AN55">
+        <v>154</v>
+      </c>
+      <c r="AP55">
+        <v>62</v>
+      </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -39623,8 +42898,17 @@
       <c r="AK56">
         <v>28</v>
       </c>
+      <c r="AM56">
+        <v>65</v>
+      </c>
+      <c r="AN56">
+        <v>154</v>
+      </c>
+      <c r="AP56">
+        <v>62</v>
+      </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -39706,8 +42990,17 @@
       <c r="AK57">
         <v>28</v>
       </c>
+      <c r="AM57">
+        <v>65</v>
+      </c>
+      <c r="AN57">
+        <v>154</v>
+      </c>
+      <c r="AP57">
+        <v>61</v>
+      </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -39789,8 +43082,17 @@
       <c r="AK58">
         <v>28</v>
       </c>
+      <c r="AM58">
+        <v>64</v>
+      </c>
+      <c r="AN58">
+        <v>155</v>
+      </c>
+      <c r="AP58">
+        <v>60</v>
+      </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -39872,8 +43174,17 @@
       <c r="AK59">
         <v>28</v>
       </c>
+      <c r="AM59">
+        <v>64</v>
+      </c>
+      <c r="AN59">
+        <v>155</v>
+      </c>
+      <c r="AP59">
+        <v>59</v>
+      </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -39955,8 +43266,17 @@
       <c r="AK60">
         <v>28</v>
       </c>
+      <c r="AM60">
+        <v>63</v>
+      </c>
+      <c r="AN60">
+        <v>155</v>
+      </c>
+      <c r="AP60">
+        <v>59</v>
+      </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -40038,8 +43358,17 @@
       <c r="AK61">
         <v>27</v>
       </c>
+      <c r="AM61">
+        <v>63</v>
+      </c>
+      <c r="AN61">
+        <v>156</v>
+      </c>
+      <c r="AP61">
+        <v>58</v>
+      </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -40121,8 +43450,17 @@
       <c r="AK62">
         <v>27</v>
       </c>
+      <c r="AM62">
+        <v>62</v>
+      </c>
+      <c r="AN62">
+        <v>156</v>
+      </c>
+      <c r="AP62">
+        <v>57</v>
+      </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -40204,8 +43542,17 @@
       <c r="AK63">
         <v>27</v>
       </c>
+      <c r="AM63">
+        <v>62</v>
+      </c>
+      <c r="AN63">
+        <v>156</v>
+      </c>
+      <c r="AP63">
+        <v>56</v>
+      </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -40287,8 +43634,17 @@
       <c r="AK64">
         <v>27</v>
       </c>
+      <c r="AM64">
+        <v>61</v>
+      </c>
+      <c r="AN64">
+        <v>157</v>
+      </c>
+      <c r="AP64">
+        <v>55</v>
+      </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -40370,8 +43726,17 @@
       <c r="AK65">
         <v>27</v>
       </c>
+      <c r="AM65">
+        <v>60</v>
+      </c>
+      <c r="AN65">
+        <v>157</v>
+      </c>
+      <c r="AP65">
+        <v>55</v>
+      </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -40453,8 +43818,17 @@
       <c r="AK66">
         <v>27</v>
       </c>
+      <c r="AM66">
+        <v>60</v>
+      </c>
+      <c r="AN66">
+        <v>158</v>
+      </c>
+      <c r="AP66">
+        <v>54</v>
+      </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -40536,8 +43910,17 @@
       <c r="AK67">
         <v>27</v>
       </c>
+      <c r="AM67">
+        <v>59</v>
+      </c>
+      <c r="AN67">
+        <v>158</v>
+      </c>
+      <c r="AP67">
+        <v>53</v>
+      </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -40619,8 +44002,17 @@
       <c r="AK68">
         <v>27</v>
       </c>
+      <c r="AM68">
+        <v>59</v>
+      </c>
+      <c r="AN68">
+        <v>158</v>
+      </c>
+      <c r="AP68">
+        <v>52</v>
+      </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -40702,8 +44094,17 @@
       <c r="AK69">
         <v>26</v>
       </c>
+      <c r="AM69">
+        <v>58</v>
+      </c>
+      <c r="AN69">
+        <v>159</v>
+      </c>
+      <c r="AP69">
+        <v>51</v>
+      </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -40785,8 +44186,14 @@
       <c r="AK70">
         <v>26</v>
       </c>
+      <c r="AM70">
+        <v>58</v>
+      </c>
+      <c r="AN70">
+        <v>159</v>
+      </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>0</v>
       </c>
@@ -40856,8 +44263,14 @@
       <c r="AJ72">
         <v>80</v>
       </c>
+      <c r="AL72">
+        <v>46</v>
+      </c>
+      <c r="AM72">
+        <v>91</v>
+      </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>0</v>
       </c>
@@ -40930,8 +44343,14 @@
       <c r="AJ73">
         <v>77</v>
       </c>
+      <c r="AL73">
+        <v>49</v>
+      </c>
+      <c r="AM73">
+        <v>95</v>
+      </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>0</v>
       </c>
@@ -41004,8 +44423,14 @@
       <c r="AJ74">
         <v>85</v>
       </c>
+      <c r="AL74">
+        <v>52</v>
+      </c>
+      <c r="AM74">
+        <v>97</v>
+      </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0</v>
       </c>
@@ -41078,8 +44503,14 @@
       <c r="AJ75">
         <v>88</v>
       </c>
+      <c r="AL75">
+        <v>52</v>
+      </c>
+      <c r="AM75">
+        <v>100</v>
+      </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0</v>
       </c>
@@ -41152,8 +44583,14 @@
       <c r="AJ76">
         <v>91</v>
       </c>
+      <c r="AL76">
+        <v>54</v>
+      </c>
+      <c r="AM76">
+        <v>102</v>
+      </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>0</v>
       </c>
@@ -41226,8 +44663,14 @@
       <c r="AJ77">
         <v>94</v>
       </c>
+      <c r="AL77">
+        <v>56</v>
+      </c>
+      <c r="AM77">
+        <v>104</v>
+      </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>0</v>
       </c>
@@ -41300,8 +44743,14 @@
       <c r="AJ78">
         <v>97</v>
       </c>
+      <c r="AL78">
+        <v>58</v>
+      </c>
+      <c r="AM78">
+        <v>106</v>
+      </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>0</v>
       </c>
@@ -41374,8 +44823,14 @@
       <c r="AJ79">
         <v>97</v>
       </c>
+      <c r="AL79">
+        <v>61</v>
+      </c>
+      <c r="AM79">
+        <v>108</v>
+      </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>0</v>
       </c>
@@ -41448,8 +44903,14 @@
       <c r="AJ80">
         <v>101</v>
       </c>
+      <c r="AL80">
+        <v>63</v>
+      </c>
+      <c r="AM80">
+        <v>109</v>
+      </c>
     </row>
-    <row r="81" spans="2:36">
+    <row r="81" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>0</v>
       </c>
@@ -41522,8 +44983,14 @@
       <c r="AJ81">
         <v>104</v>
       </c>
+      <c r="AL81">
+        <v>64</v>
+      </c>
+      <c r="AM81">
+        <v>111</v>
+      </c>
     </row>
-    <row r="82" spans="2:36">
+    <row r="82" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>0</v>
       </c>
@@ -41596,8 +45063,14 @@
       <c r="AJ82">
         <v>105</v>
       </c>
+      <c r="AL82">
+        <v>65</v>
+      </c>
+      <c r="AM82">
+        <v>112</v>
+      </c>
     </row>
-    <row r="83" spans="2:36">
+    <row r="83" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>0</v>
       </c>
@@ -41670,8 +45143,14 @@
       <c r="AJ83">
         <v>107</v>
       </c>
+      <c r="AL83">
+        <v>66</v>
+      </c>
+      <c r="AM83">
+        <v>113</v>
+      </c>
     </row>
-    <row r="84" spans="2:36">
+    <row r="84" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>0</v>
       </c>
@@ -41744,8 +45223,14 @@
       <c r="AJ84">
         <v>109</v>
       </c>
+      <c r="AL84">
+        <v>66</v>
+      </c>
+      <c r="AM84">
+        <v>114</v>
+      </c>
     </row>
-    <row r="85" spans="2:36">
+    <row r="85" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>0</v>
       </c>
@@ -41818,8 +45303,14 @@
       <c r="AJ85">
         <v>110</v>
       </c>
+      <c r="AL85">
+        <v>66</v>
+      </c>
+      <c r="AM85">
+        <v>114</v>
+      </c>
     </row>
-    <row r="86" spans="2:36">
+    <row r="86" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>0</v>
       </c>
@@ -41892,8 +45383,14 @@
       <c r="AJ86">
         <v>111</v>
       </c>
+      <c r="AL86">
+        <v>67</v>
+      </c>
+      <c r="AM86">
+        <v>115</v>
+      </c>
     </row>
-    <row r="87" spans="2:36">
+    <row r="87" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>0</v>
       </c>
@@ -41966,8 +45463,14 @@
       <c r="AJ87">
         <v>112</v>
       </c>
+      <c r="AL87">
+        <v>67</v>
+      </c>
+      <c r="AM87">
+        <v>116</v>
+      </c>
     </row>
-    <row r="88" spans="2:36">
+    <row r="88" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>17</v>
       </c>
@@ -42040,8 +45543,14 @@
       <c r="AJ88">
         <v>113</v>
       </c>
+      <c r="AL88">
+        <v>66</v>
+      </c>
+      <c r="AM88">
+        <v>116</v>
+      </c>
     </row>
-    <row r="89" spans="2:36">
+    <row r="89" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>8</v>
       </c>
@@ -42114,8 +45623,14 @@
       <c r="AJ89">
         <v>114</v>
       </c>
+      <c r="AL89">
+        <v>66</v>
+      </c>
+      <c r="AM89">
+        <v>116</v>
+      </c>
     </row>
-    <row r="90" spans="2:36">
+    <row r="90" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>1</v>
       </c>
@@ -42188,8 +45703,14 @@
       <c r="AJ90">
         <v>115</v>
       </c>
+      <c r="AL90">
+        <v>65</v>
+      </c>
+      <c r="AM90">
+        <v>159</v>
+      </c>
     </row>
-    <row r="91" spans="2:36">
+    <row r="91" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>0</v>
       </c>
@@ -42262,8 +45783,14 @@
       <c r="AJ91">
         <v>116</v>
       </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>159</v>
+      </c>
     </row>
-    <row r="92" spans="2:36">
+    <row r="92" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>0</v>
       </c>
@@ -42336,8 +45863,14 @@
       <c r="AJ92">
         <v>117</v>
       </c>
+      <c r="AL92">
+        <v>9</v>
+      </c>
+      <c r="AM92">
+        <v>159</v>
+      </c>
     </row>
-    <row r="93" spans="2:36">
+    <row r="93" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>0</v>
       </c>
@@ -42410,8 +45943,14 @@
       <c r="AJ93">
         <v>118</v>
       </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>159</v>
+      </c>
     </row>
-    <row r="94" spans="2:36">
+    <row r="94" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>0</v>
       </c>
@@ -42484,8 +46023,14 @@
       <c r="AJ94">
         <v>118</v>
       </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>159</v>
+      </c>
     </row>
-    <row r="95" spans="2:36">
+    <row r="95" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>0</v>
       </c>
@@ -42558,8 +46103,14 @@
       <c r="AJ95">
         <v>119</v>
       </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>159</v>
+      </c>
     </row>
-    <row r="96" spans="2:36">
+    <row r="96" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>0</v>
       </c>
@@ -42632,8 +46183,14 @@
       <c r="AJ96">
         <v>119</v>
       </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>159</v>
+      </c>
     </row>
-    <row r="97" spans="2:36">
+    <row r="97" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>0</v>
       </c>
@@ -42706,8 +46263,14 @@
       <c r="AJ97">
         <v>119</v>
       </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>159</v>
+      </c>
     </row>
-    <row r="98" spans="2:36">
+    <row r="98" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>0</v>
       </c>
@@ -42780,8 +46343,14 @@
       <c r="AJ98">
         <v>119</v>
       </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <v>159</v>
+      </c>
     </row>
-    <row r="99" spans="2:36">
+    <row r="99" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>0</v>
       </c>
@@ -42854,8 +46423,14 @@
       <c r="AJ99">
         <v>159</v>
       </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
+        <v>159</v>
+      </c>
     </row>
-    <row r="100" spans="2:36">
+    <row r="100" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>0</v>
       </c>
@@ -42928,8 +46503,14 @@
       <c r="AJ100">
         <v>159</v>
       </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>159</v>
+      </c>
     </row>
-    <row r="101" spans="2:36">
+    <row r="101" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>0</v>
       </c>
@@ -43002,8 +46583,14 @@
       <c r="AJ101">
         <v>159</v>
       </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AM101">
+        <v>159</v>
+      </c>
     </row>
-    <row r="102" spans="2:36">
+    <row r="102" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>0</v>
       </c>
@@ -43076,8 +46663,14 @@
       <c r="AJ102">
         <v>159</v>
       </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>159</v>
+      </c>
     </row>
-    <row r="103" spans="2:36">
+    <row r="103" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>0</v>
       </c>
@@ -43150,8 +46743,14 @@
       <c r="AJ103">
         <v>159</v>
       </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>159</v>
+      </c>
     </row>
-    <row r="104" spans="2:36">
+    <row r="104" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>0</v>
       </c>
@@ -43224,8 +46823,14 @@
       <c r="AJ104">
         <v>159</v>
       </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>159</v>
+      </c>
     </row>
-    <row r="105" spans="2:36">
+    <row r="105" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>0</v>
       </c>
@@ -43298,8 +46903,14 @@
       <c r="AJ105">
         <v>159</v>
       </c>
+      <c r="AL105">
+        <v>0</v>
+      </c>
+      <c r="AM105">
+        <v>159</v>
+      </c>
     </row>
-    <row r="106" spans="2:36">
+    <row r="106" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>0</v>
       </c>
@@ -43372,8 +46983,14 @@
       <c r="AJ106">
         <v>159</v>
       </c>
+      <c r="AL106">
+        <v>0</v>
+      </c>
+      <c r="AM106">
+        <v>159</v>
+      </c>
     </row>
-    <row r="107" spans="2:36">
+    <row r="107" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>0</v>
       </c>
@@ -43446,8 +47063,14 @@
       <c r="AJ107">
         <v>159</v>
       </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <v>159</v>
+      </c>
     </row>
-    <row r="108" spans="2:36">
+    <row r="108" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>0</v>
       </c>
@@ -43520,8 +47143,14 @@
       <c r="AJ108">
         <v>159</v>
       </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <v>159</v>
+      </c>
     </row>
-    <row r="109" spans="2:36">
+    <row r="109" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>0</v>
       </c>
@@ -43594,8 +47223,14 @@
       <c r="AJ109">
         <v>159</v>
       </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
+      <c r="AM109">
+        <v>159</v>
+      </c>
     </row>
-    <row r="110" spans="2:36">
+    <row r="110" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>0</v>
       </c>
@@ -43668,8 +47303,14 @@
       <c r="AJ110">
         <v>159</v>
       </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <v>159</v>
+      </c>
     </row>
-    <row r="111" spans="2:36">
+    <row r="111" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>0</v>
       </c>
@@ -43742,8 +47383,14 @@
       <c r="AJ111">
         <v>159</v>
       </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
+      <c r="AM111">
+        <v>159</v>
+      </c>
     </row>
-    <row r="112" spans="2:36">
+    <row r="112" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>0</v>
       </c>
@@ -43816,8 +47463,14 @@
       <c r="AJ112">
         <v>159</v>
       </c>
+      <c r="AL112">
+        <v>0</v>
+      </c>
+      <c r="AM112">
+        <v>159</v>
+      </c>
     </row>
-    <row r="113" spans="2:36">
+    <row r="113" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>13</v>
       </c>
@@ -43890,8 +47543,14 @@
       <c r="AJ113">
         <v>159</v>
       </c>
+      <c r="AL113">
+        <v>0</v>
+      </c>
+      <c r="AM113">
+        <v>159</v>
+      </c>
     </row>
-    <row r="114" spans="2:36">
+    <row r="114" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>20</v>
       </c>
@@ -43964,8 +47623,14 @@
       <c r="AJ114">
         <v>159</v>
       </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <v>159</v>
+      </c>
     </row>
-    <row r="115" spans="2:36">
+    <row r="115" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>25</v>
       </c>
@@ -44038,8 +47703,14 @@
       <c r="AJ115">
         <v>159</v>
       </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>159</v>
+      </c>
     </row>
-    <row r="116" spans="2:36">
+    <row r="116" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>28</v>
       </c>
@@ -44112,8 +47783,14 @@
       <c r="AJ116">
         <v>159</v>
       </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <v>159</v>
+      </c>
     </row>
-    <row r="117" spans="2:36">
+    <row r="117" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>31</v>
       </c>
@@ -44186,8 +47863,14 @@
       <c r="AJ117">
         <v>159</v>
       </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>159</v>
+      </c>
     </row>
-    <row r="118" spans="2:36">
+    <row r="118" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>34</v>
       </c>
@@ -44260,8 +47943,14 @@
       <c r="AJ118">
         <v>159</v>
       </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>159</v>
+      </c>
     </row>
-    <row r="119" spans="2:36">
+    <row r="119" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>37</v>
       </c>
@@ -44334,8 +48023,14 @@
       <c r="AJ119">
         <v>159</v>
       </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>159</v>
+      </c>
     </row>
-    <row r="120" spans="2:36">
+    <row r="120" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>38</v>
       </c>
@@ -44408,8 +48103,14 @@
       <c r="AJ120">
         <v>159</v>
       </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>148</v>
+      </c>
     </row>
-    <row r="121" spans="2:36">
+    <row r="121" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>40</v>
       </c>
@@ -44482,8 +48183,14 @@
       <c r="AJ121">
         <v>159</v>
       </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>132</v>
+      </c>
     </row>
-    <row r="122" spans="2:36">
+    <row r="122" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>41</v>
       </c>
@@ -44556,8 +48263,14 @@
       <c r="AJ122">
         <v>159</v>
       </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AM122">
+        <v>132</v>
+      </c>
     </row>
-    <row r="123" spans="2:36">
+    <row r="123" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>43</v>
       </c>
@@ -44630,8 +48343,14 @@
       <c r="AJ123">
         <v>159</v>
       </c>
+      <c r="AL123">
+        <v>48</v>
+      </c>
+      <c r="AM123">
+        <v>132</v>
+      </c>
     </row>
-    <row r="124" spans="2:36">
+    <row r="124" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>44</v>
       </c>
@@ -44704,8 +48423,14 @@
       <c r="AJ124">
         <v>159</v>
       </c>
+      <c r="AL124">
+        <v>47</v>
+      </c>
+      <c r="AM124">
+        <v>133</v>
+      </c>
     </row>
-    <row r="125" spans="2:36">
+    <row r="125" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>45</v>
       </c>
@@ -44778,8 +48503,14 @@
       <c r="AJ125">
         <v>159</v>
       </c>
+      <c r="AL125">
+        <v>47</v>
+      </c>
+      <c r="AM125">
+        <v>133</v>
+      </c>
     </row>
-    <row r="126" spans="2:36">
+    <row r="126" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>46</v>
       </c>
@@ -44852,8 +48583,14 @@
       <c r="AJ126">
         <v>159</v>
       </c>
+      <c r="AL126">
+        <v>46</v>
+      </c>
+      <c r="AM126">
+        <v>134</v>
+      </c>
     </row>
-    <row r="127" spans="2:36">
+    <row r="127" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>47</v>
       </c>
@@ -44926,8 +48663,14 @@
       <c r="AJ127">
         <v>159</v>
       </c>
+      <c r="AL127">
+        <v>47</v>
+      </c>
+      <c r="AM127">
+        <v>134</v>
+      </c>
     </row>
-    <row r="128" spans="2:36">
+    <row r="128" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>48</v>
       </c>
@@ -45000,8 +48743,14 @@
       <c r="AJ128">
         <v>159</v>
       </c>
+      <c r="AL128">
+        <v>45</v>
+      </c>
+      <c r="AM128">
+        <v>134</v>
+      </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>48</v>
       </c>
@@ -45074,8 +48823,14 @@
       <c r="AJ129">
         <v>159</v>
       </c>
+      <c r="AL129">
+        <v>45</v>
+      </c>
+      <c r="AM129">
+        <v>135</v>
+      </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>49</v>
       </c>
@@ -45148,8 +48903,14 @@
       <c r="AJ130">
         <v>159</v>
       </c>
+      <c r="AL130">
+        <v>45</v>
+      </c>
+      <c r="AM130">
+        <v>135</v>
+      </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>50</v>
       </c>
@@ -45222,8 +48983,14 @@
       <c r="AJ131">
         <v>159</v>
       </c>
+      <c r="AL131">
+        <v>44</v>
+      </c>
+      <c r="AM131">
+        <v>136</v>
+      </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>50</v>
       </c>
@@ -45296,8 +49063,14 @@
       <c r="AJ132">
         <v>159</v>
       </c>
+      <c r="AL132">
+        <v>44</v>
+      </c>
+      <c r="AM132">
+        <v>136</v>
+      </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>50</v>
       </c>
@@ -45370,8 +49143,14 @@
       <c r="AJ133">
         <v>159</v>
       </c>
+      <c r="AL133">
+        <v>43</v>
+      </c>
+      <c r="AM133">
+        <v>137</v>
+      </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>51</v>
       </c>
@@ -45444,8 +49223,14 @@
       <c r="AJ134">
         <v>159</v>
       </c>
+      <c r="AL134">
+        <v>43</v>
+      </c>
+      <c r="AM134">
+        <v>137</v>
+      </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>51</v>
       </c>
@@ -45518,8 +49303,14 @@
       <c r="AJ135">
         <v>159</v>
       </c>
+      <c r="AL135">
+        <v>42</v>
+      </c>
+      <c r="AM135">
+        <v>137</v>
+      </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>51</v>
       </c>
@@ -45592,8 +49383,14 @@
       <c r="AJ136">
         <v>159</v>
       </c>
+      <c r="AL136">
+        <v>42</v>
+      </c>
+      <c r="AM136">
+        <v>138</v>
+      </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>51</v>
       </c>
@@ -45666,8 +49463,14 @@
       <c r="AJ137">
         <v>159</v>
       </c>
+      <c r="AL137">
+        <v>41</v>
+      </c>
+      <c r="AM137">
+        <v>138</v>
+      </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>51</v>
       </c>
@@ -45740,8 +49543,14 @@
       <c r="AJ138">
         <v>159</v>
       </c>
+      <c r="AL138">
+        <v>41</v>
+      </c>
+      <c r="AM138">
+        <v>139</v>
+      </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>51</v>
       </c>
@@ -45814,8 +49623,14 @@
       <c r="AJ139">
         <v>159</v>
       </c>
+      <c r="AL139">
+        <v>40</v>
+      </c>
+      <c r="AM139">
+        <v>139</v>
+      </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>51</v>
       </c>
@@ -45888,8 +49703,14 @@
       <c r="AJ140">
         <v>159</v>
       </c>
+      <c r="AL140">
+        <v>40</v>
+      </c>
+      <c r="AM140">
+        <v>140</v>
+      </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>51</v>
       </c>
@@ -45962,8 +49783,14 @@
       <c r="AJ141">
         <v>159</v>
       </c>
+      <c r="AL141">
+        <v>39</v>
+      </c>
+      <c r="AM141">
+        <v>140</v>
+      </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>61</v>
       </c>
@@ -45989,7 +49816,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>58</v>
       </c>
@@ -46015,7 +49842,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>56</v>
       </c>
@@ -46041,7 +49868,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>54</v>
       </c>
@@ -46067,7 +49894,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>52</v>
       </c>
@@ -46093,7 +49920,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>51</v>
       </c>
@@ -46119,7 +49946,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>49</v>
       </c>
@@ -46145,7 +49972,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>159</v>
       </c>
@@ -46171,7 +49998,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>159</v>
       </c>
@@ -46197,7 +50024,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>159</v>
       </c>
@@ -46223,7 +50050,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>159</v>
       </c>
@@ -46249,7 +50076,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>159</v>
       </c>
@@ -46275,7 +50102,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>159</v>
       </c>
@@ -46301,7 +50128,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>159</v>
       </c>
@@ -46327,7 +50154,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>159</v>
       </c>
@@ -46353,7 +50180,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>159</v>
       </c>
@@ -46379,7 +50206,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>159</v>
       </c>
@@ -46405,7 +50232,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -46431,7 +50258,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -46457,7 +50284,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>159</v>
       </c>
@@ -46483,7 +50310,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>159</v>
       </c>
@@ -46509,7 +50336,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>159</v>
       </c>
@@ -46535,7 +50362,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>159</v>
       </c>
@@ -46561,7 +50388,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>159</v>
       </c>
@@ -46587,7 +50414,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>159</v>
       </c>
@@ -46613,7 +50440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>155</v>
       </c>
@@ -46639,7 +50466,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>150</v>
       </c>
@@ -46665,7 +50492,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>147</v>
       </c>
@@ -46691,7 +50518,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>145</v>
       </c>
@@ -46717,7 +50544,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>143</v>
       </c>
@@ -46743,7 +50570,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>142</v>
       </c>
@@ -46769,7 +50596,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>141</v>
       </c>
@@ -46795,7 +50622,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>140</v>
       </c>
@@ -46821,7 +50648,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>139</v>
       </c>
@@ -46847,7 +50674,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>138</v>
       </c>
@@ -46873,7 +50700,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>138</v>
       </c>
@@ -46899,7 +50726,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>138</v>
       </c>
@@ -46925,7 +50752,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>137</v>
       </c>
@@ -46951,7 +50778,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>137</v>
       </c>
@@ -46977,7 +50804,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>137</v>
       </c>
@@ -47003,7 +50830,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>137</v>
       </c>
@@ -47029,7 +50856,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>138</v>
       </c>
@@ -47055,7 +50882,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>138</v>
       </c>
@@ -47081,7 +50908,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>138</v>
       </c>
@@ -47107,7 +50934,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>138</v>
       </c>
@@ -47133,7 +50960,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>139</v>
       </c>
@@ -47159,7 +50986,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>139</v>
       </c>
@@ -47185,7 +51012,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>140</v>
       </c>
@@ -47211,7 +51038,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>140</v>
       </c>
@@ -47237,7 +51064,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>141</v>
       </c>
@@ -47263,7 +51090,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>141</v>
       </c>
@@ -47289,7 +51116,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>142</v>
       </c>
@@ -47315,7 +51142,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>142</v>
       </c>
@@ -47341,7 +51168,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>143</v>
       </c>
@@ -47367,7 +51194,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>143</v>
       </c>
@@ -47393,7 +51220,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>144</v>
       </c>
@@ -47419,7 +51246,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>145</v>
       </c>
@@ -47445,7 +51272,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>145</v>
       </c>
@@ -47471,7 +51298,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>146</v>
       </c>
@@ -47497,7 +51324,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>146</v>
       </c>
@@ -47523,7 +51350,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>147</v>
       </c>
@@ -47549,7 +51376,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>147</v>
       </c>
@@ -47575,7 +51402,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>148</v>
       </c>
@@ -47601,7 +51428,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>148</v>
       </c>
@@ -47627,7 +51454,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>149</v>
       </c>
@@ -47653,7 +51480,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>149</v>
       </c>
@@ -47679,7 +51506,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>150</v>
       </c>
@@ -47705,7 +51532,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>151</v>
       </c>
@@ -47731,7 +51558,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>151</v>
       </c>
@@ -47757,7 +51584,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D212">
         <v>159</v>
       </c>
@@ -47788,43 +51615,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648B726F-516E-4C11-AD84-AB99ED4A1061}">
   <dimension ref="N263:N287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ11" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BF19" sqref="BF19"/>
+    <sheetView topLeftCell="AH108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BH128" sqref="BH128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="263" spans="14:14">
+    <row r="263" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N263">
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="14:14">
+    <row r="264" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N264">
         <v>86</v>
       </c>
     </row>
-    <row r="266" spans="14:14">
+    <row r="266" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N266">
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="14:14">
+    <row r="267" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N267">
         <v>68</v>
       </c>
     </row>
-    <row r="269" spans="14:14">
+    <row r="269" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N269">
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="14:14">
+    <row r="270" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N270">
         <v>81</v>
       </c>
     </row>
-    <row r="287" spans="14:14">
+    <row r="287" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N287">
         <v>36</v>
       </c>

--- a/图像数据.xlsx
+++ b/图像数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\smart_car_19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CANCER_CMP\Desktop\smart_car_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1C35AC-8890-4C48-956F-5BDEFD82D0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60148099-6746-470F-913D-71955149CE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="29040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37333,13 +37333,13 @@
       <xdr:col>45</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
+      <xdr:rowOff>83126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>231913</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37369,15 +37369,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>370114</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>235643</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>174492</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37672,13 +37672,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="AL1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AQ27" sqref="AQ27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -37773,7 +37773,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -37868,7 +37868,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -37963,7 +37963,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -38058,7 +38058,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -38153,7 +38153,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -38248,7 +38248,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -38343,7 +38343,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -38438,7 +38438,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -38533,7 +38533,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -38628,7 +38628,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -38723,7 +38723,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -38818,7 +38818,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -38913,7 +38913,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -39008,7 +39008,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -39103,7 +39103,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -39198,7 +39198,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -39293,7 +39293,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -39388,7 +39388,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -39483,7 +39483,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -39578,7 +39578,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -39673,7 +39673,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -39768,7 +39768,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -39863,7 +39863,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -39958,7 +39958,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -40053,7 +40053,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -40148,7 +40148,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -40240,7 +40240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -40332,7 +40332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -40424,7 +40424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -40516,7 +40516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -40608,7 +40608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -40700,7 +40700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -40792,7 +40792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -40884,7 +40884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -40976,7 +40976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -41068,7 +41068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -41160,7 +41160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -41252,7 +41252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -41344,7 +41344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -41436,7 +41436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -41528,7 +41528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -41620,7 +41620,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -41712,7 +41712,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -41804,7 +41804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -41896,7 +41896,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -41988,7 +41988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -42080,7 +42080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -42172,7 +42172,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -42264,7 +42264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -42356,7 +42356,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -42448,7 +42448,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -42540,7 +42540,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -42632,7 +42632,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -42724,7 +42724,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -42816,7 +42816,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -42908,7 +42908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -43000,7 +43000,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -43092,7 +43092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -43184,7 +43184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -43276,7 +43276,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -43368,7 +43368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -43460,7 +43460,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -43552,7 +43552,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -43644,7 +43644,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -43736,7 +43736,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -43828,7 +43828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -43920,7 +43920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -44012,7 +44012,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -44104,7 +44104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -44193,7 +44193,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>0</v>
       </c>
@@ -44270,7 +44270,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>0</v>
       </c>
@@ -44350,7 +44350,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>0</v>
       </c>
@@ -44430,7 +44430,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>0</v>
       </c>
@@ -44510,7 +44510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>0</v>
       </c>
@@ -44590,7 +44590,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>0</v>
       </c>
@@ -44670,7 +44670,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>0</v>
       </c>
@@ -44750,7 +44750,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>0</v>
       </c>
@@ -44830,7 +44830,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>0</v>
       </c>
@@ -44910,7 +44910,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>0</v>
       </c>
@@ -44990,7 +44990,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>0</v>
       </c>
@@ -45070,7 +45070,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>0</v>
       </c>
@@ -45150,7 +45150,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>0</v>
       </c>
@@ -45230,7 +45230,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>0</v>
       </c>
@@ -45310,7 +45310,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>0</v>
       </c>
@@ -45390,7 +45390,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>0</v>
       </c>
@@ -45470,7 +45470,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>17</v>
       </c>
@@ -45550,7 +45550,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>8</v>
       </c>
@@ -45630,7 +45630,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>1</v>
       </c>
@@ -45710,7 +45710,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>0</v>
       </c>
@@ -45790,7 +45790,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>0</v>
       </c>
@@ -45870,7 +45870,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>0</v>
       </c>
@@ -45950,7 +45950,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>0</v>
       </c>
@@ -46030,7 +46030,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>0</v>
       </c>
@@ -46110,7 +46110,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>0</v>
       </c>
@@ -46190,7 +46190,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>0</v>
       </c>
@@ -46270,7 +46270,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>0</v>
       </c>
@@ -46350,7 +46350,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>0</v>
       </c>
@@ -46430,7 +46430,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="100" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>0</v>
       </c>
@@ -46510,7 +46510,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>0</v>
       </c>
@@ -46590,7 +46590,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>0</v>
       </c>
@@ -46670,7 +46670,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>0</v>
       </c>
@@ -46750,7 +46750,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>0</v>
       </c>
@@ -46830,7 +46830,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>0</v>
       </c>
@@ -46910,7 +46910,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>0</v>
       </c>
@@ -46990,7 +46990,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>0</v>
       </c>
@@ -47070,7 +47070,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>0</v>
       </c>
@@ -47150,7 +47150,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>0</v>
       </c>
@@ -47230,7 +47230,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>0</v>
       </c>
@@ -47310,7 +47310,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>0</v>
       </c>
@@ -47390,7 +47390,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>0</v>
       </c>
@@ -47470,7 +47470,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>13</v>
       </c>
@@ -47550,7 +47550,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>20</v>
       </c>
@@ -47630,7 +47630,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>25</v>
       </c>
@@ -47710,7 +47710,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B116">
         <v>28</v>
       </c>
@@ -47790,7 +47790,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B117">
         <v>31</v>
       </c>
@@ -47870,7 +47870,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B118">
         <v>34</v>
       </c>
@@ -47950,7 +47950,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="119" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>37</v>
       </c>
@@ -48030,7 +48030,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B120">
         <v>38</v>
       </c>
@@ -48110,7 +48110,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="121" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B121">
         <v>40</v>
       </c>
@@ -48190,7 +48190,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>41</v>
       </c>
@@ -48270,7 +48270,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>43</v>
       </c>
@@ -48350,7 +48350,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B124">
         <v>44</v>
       </c>
@@ -48430,7 +48430,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>45</v>
       </c>
@@ -48510,7 +48510,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>46</v>
       </c>
@@ -48590,7 +48590,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B127">
         <v>47</v>
       </c>
@@ -48670,7 +48670,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B128">
         <v>48</v>
       </c>
@@ -48750,7 +48750,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B129">
         <v>48</v>
       </c>
@@ -48830,7 +48830,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B130">
         <v>49</v>
       </c>
@@ -48910,7 +48910,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B131">
         <v>50</v>
       </c>
@@ -48990,7 +48990,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B132">
         <v>50</v>
       </c>
@@ -49070,7 +49070,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>50</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B134">
         <v>51</v>
       </c>
@@ -49230,7 +49230,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B135">
         <v>51</v>
       </c>
@@ -49310,7 +49310,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B136">
         <v>51</v>
       </c>
@@ -49390,7 +49390,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B137">
         <v>51</v>
       </c>
@@ -49470,7 +49470,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B138">
         <v>51</v>
       </c>
@@ -49550,7 +49550,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B139">
         <v>51</v>
       </c>
@@ -49630,7 +49630,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B140">
         <v>51</v>
       </c>
@@ -49710,7 +49710,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B141">
         <v>51</v>
       </c>
@@ -49790,7 +49790,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>61</v>
       </c>
@@ -49816,7 +49816,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>58</v>
       </c>
@@ -49842,7 +49842,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>56</v>
       </c>
@@ -49868,7 +49868,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>54</v>
       </c>
@@ -49894,7 +49894,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>52</v>
       </c>
@@ -49920,7 +49920,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>51</v>
       </c>
@@ -49946,7 +49946,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>49</v>
       </c>
@@ -49972,7 +49972,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>159</v>
       </c>
@@ -49998,7 +49998,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>159</v>
       </c>
@@ -50024,7 +50024,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>159</v>
       </c>
@@ -50050,7 +50050,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>159</v>
       </c>
@@ -50076,7 +50076,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>159</v>
       </c>
@@ -50102,7 +50102,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>159</v>
       </c>
@@ -50128,7 +50128,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>159</v>
       </c>
@@ -50154,7 +50154,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>159</v>
       </c>
@@ -50180,7 +50180,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>159</v>
       </c>
@@ -50206,7 +50206,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>159</v>
       </c>
@@ -50232,7 +50232,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -50258,7 +50258,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -50284,7 +50284,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>159</v>
       </c>
@@ -50310,7 +50310,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>159</v>
       </c>
@@ -50336,7 +50336,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>159</v>
       </c>
@@ -50362,7 +50362,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>159</v>
       </c>
@@ -50388,7 +50388,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>159</v>
       </c>
@@ -50414,7 +50414,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>159</v>
       </c>
@@ -50440,7 +50440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>155</v>
       </c>
@@ -50466,7 +50466,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>150</v>
       </c>
@@ -50492,7 +50492,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>147</v>
       </c>
@@ -50518,7 +50518,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>145</v>
       </c>
@@ -50544,7 +50544,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>143</v>
       </c>
@@ -50570,7 +50570,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>142</v>
       </c>
@@ -50596,7 +50596,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>141</v>
       </c>
@@ -50622,7 +50622,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>140</v>
       </c>
@@ -50648,7 +50648,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>139</v>
       </c>
@@ -50674,7 +50674,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>138</v>
       </c>
@@ -50700,7 +50700,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>138</v>
       </c>
@@ -50726,7 +50726,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>138</v>
       </c>
@@ -50752,7 +50752,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>137</v>
       </c>
@@ -50778,7 +50778,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>137</v>
       </c>
@@ -50804,7 +50804,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>137</v>
       </c>
@@ -50830,7 +50830,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>137</v>
       </c>
@@ -50856,7 +50856,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>138</v>
       </c>
@@ -50882,7 +50882,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>138</v>
       </c>
@@ -50908,7 +50908,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>138</v>
       </c>
@@ -50934,7 +50934,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>138</v>
       </c>
@@ -50960,7 +50960,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>139</v>
       </c>
@@ -50986,7 +50986,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>139</v>
       </c>
@@ -51012,7 +51012,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>140</v>
       </c>
@@ -51038,7 +51038,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>140</v>
       </c>
@@ -51064,7 +51064,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>141</v>
       </c>
@@ -51090,7 +51090,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>141</v>
       </c>
@@ -51116,7 +51116,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>142</v>
       </c>
@@ -51142,7 +51142,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>142</v>
       </c>
@@ -51168,7 +51168,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>143</v>
       </c>
@@ -51194,7 +51194,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>143</v>
       </c>
@@ -51220,7 +51220,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>144</v>
       </c>
@@ -51246,7 +51246,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>145</v>
       </c>
@@ -51272,7 +51272,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>145</v>
       </c>
@@ -51298,7 +51298,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>146</v>
       </c>
@@ -51324,7 +51324,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>146</v>
       </c>
@@ -51350,7 +51350,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>147</v>
       </c>
@@ -51376,7 +51376,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>147</v>
       </c>
@@ -51402,7 +51402,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>148</v>
       </c>
@@ -51428,7 +51428,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>148</v>
       </c>
@@ -51454,7 +51454,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>149</v>
       </c>
@@ -51480,7 +51480,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>149</v>
       </c>
@@ -51506,7 +51506,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>150</v>
       </c>
@@ -51532,7 +51532,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>151</v>
       </c>
@@ -51558,7 +51558,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>151</v>
       </c>
@@ -51584,7 +51584,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D212">
         <v>159</v>
       </c>
@@ -51615,43 +51615,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648B726F-516E-4C11-AD84-AB99ED4A1061}">
   <dimension ref="N263:N287"/>
   <sheetViews>
-    <sheetView topLeftCell="AH108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BH128" sqref="BH128"/>
+    <sheetView tabSelected="1" topLeftCell="A330" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P421" sqref="P421"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="263" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N263">
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N264">
         <v>86</v>
       </c>
     </row>
-    <row r="266" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N266">
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N267">
         <v>68</v>
       </c>
     </row>
-    <row r="269" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N269">
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N270">
         <v>81</v>
       </c>
     </row>
-    <row r="287" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N287">
         <v>36</v>
       </c>

--- a/图像数据.xlsx
+++ b/图像数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CANCER_CMP\Desktop\smart_car_19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\smart_car_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60148099-6746-470F-913D-71955149CE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F698F13-6081-4FFD-8E10-90A0160A72EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="29040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1200,480 +1209,6 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$72:$I$141</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E19-446B-BECA-36CF7BC8CA03}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1292571872"/>
-        <c:axId val="1292572832"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1292571872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1292572832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1292572832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1292571872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
               <c:f>Sheet1!$Y$73:$Y$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2066,7 +1601,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2857,7 +2392,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3615,7 +3150,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4373,7 +3908,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -5131,7 +4666,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -5889,7 +5424,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6647,7 +6182,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -7405,7 +6940,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8077,6 +7612,774 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1440997040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9123489499653908E-2"/>
+          <c:y val="3.9792070239007736E-2"/>
+          <c:w val="0.94215248481476799"/>
+          <c:h val="0.92474475646296428"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$72:$AA$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7837-48D8-A303-1C6153E93C2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$72:$AB$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7837-48D8-A303-1C6153E93C2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1664554000"/>
+        <c:axId val="1664563600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1664554000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664563600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1664563600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664554000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9260,774 +9563,6 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.9123489499653908E-2"/>
-          <c:y val="3.9792070239007736E-2"/>
-          <c:w val="0.94215248481476799"/>
-          <c:h val="0.92474475646296428"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AA$72:$AA$141</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>53</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7837-48D8-A303-1C6153E93C2E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AB$72:$AB$141</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>159</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7837-48D8-A303-1C6153E93C2E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1664554000"/>
-        <c:axId val="1664563600"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1664554000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1664563600"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1664563600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1664554000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10740,7 +10275,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -11498,7 +11033,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -12256,7 +11791,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -13014,7 +12549,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -13766,7 +13301,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -14524,7 +14059,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -15226,6 +14761,1009 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="719297647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>圆环状态</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$1:$J$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84CD-4125-B9EB-AEA429D39C86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$1:$K$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-84CD-4125-B9EB-AEA429D39C86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$L$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-84CD-4125-B9EB-AEA429D39C86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1397024879"/>
+        <c:axId val="1397023439"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1397024879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1397023439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1397023439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1397024879"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20607,35 +21145,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>圆环状态</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>3</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20684,223 +21193,235 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$1:$J$70</c:f>
+              <c:f>Sheet1!$I$72:$I$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>85</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>82</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>76</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>79</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>79</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>79</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>78</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>78</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>77</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>77</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>76</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>76</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>75</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>75</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>74</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>74</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>73</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>73</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>72</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>71</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>71</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>70</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>69</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>69</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>68</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>68</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>67</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>66</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>66</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>65</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>65</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>64</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>64</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>63</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>63</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>62</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>62</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>61</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>61</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>60</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>59</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>58</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>58</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>57</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>57</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20908,489 +21429,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D068-48CD-9334-6CE18FA8F591}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$1:$K$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>159</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D068-48CD-9334-6CE18FA8F591}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$1:$L$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>106</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D068-48CD-9334-6CE18FA8F591}"/>
+              <c16:uniqueId val="{00000000-8E19-446B-BECA-36CF7BC8CA03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21402,12 +21441,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1397024879"/>
-        <c:axId val="1397023439"/>
+        <c:axId val="1292571872"/>
+        <c:axId val="1292572832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1397024879"/>
+        <c:axId val="1292571872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21449,7 +21489,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1397023439"/>
+        <c:crossAx val="1292572832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21457,7 +21497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1397023439"/>
+        <c:axId val="1292572832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21508,7 +21548,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1397024879"/>
+        <c:crossAx val="1292571872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21520,37 +21560,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -23192,7 +23201,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -23300,11 +23309,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -23315,11 +23319,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -23351,9 +23350,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -32272,7 +32268,7 @@
 </file>
 
 <file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -32380,6 +32376,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -32390,6 +32391,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -32421,6 +32427,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -36684,44 +36693,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="图表 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C79062A-F382-445E-9BC8-1BCC6A03AD00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>581889</xdr:colOff>
       <xdr:row>102</xdr:row>
@@ -36752,7 +36723,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -36790,7 +36761,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -36828,7 +36799,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -36866,7 +36837,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -36904,7 +36875,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -36942,7 +36913,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -36980,7 +36951,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37018,7 +36989,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37056,7 +37027,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37094,7 +37065,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37132,7 +37103,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37170,7 +37141,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37208,7 +37179,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37246,7 +37217,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37284,7 +37255,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37322,7 +37293,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37360,7 +37331,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37385,6 +37356,44 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A52E2ED-4C56-47B2-9017-073421443FEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>269421</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="图表 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CE97E5-E756-44B5-806E-E9DC302AB8A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37676,9 +37685,9 @@
       <selection activeCell="AQ27" sqref="AQ27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -37773,7 +37782,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -37868,7 +37877,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -37963,7 +37972,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -38058,7 +38067,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -38153,7 +38162,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -38248,7 +38257,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -38343,7 +38352,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -38438,7 +38447,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -38533,7 +38542,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -38628,7 +38637,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -38723,7 +38732,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -38818,7 +38827,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -38913,7 +38922,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -39008,7 +39017,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -39103,7 +39112,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -39198,7 +39207,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -39293,7 +39302,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -39388,7 +39397,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -39483,7 +39492,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -39578,7 +39587,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -39673,7 +39682,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -39768,7 +39777,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -39863,7 +39872,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -39958,7 +39967,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -40053,7 +40062,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -40148,7 +40157,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -40240,7 +40249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -40332,7 +40341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -40424,7 +40433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -40516,7 +40525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -40608,7 +40617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -40700,7 +40709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -40792,7 +40801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -40884,7 +40893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -40976,7 +40985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -41068,7 +41077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -41160,7 +41169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -41252,7 +41261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -41344,7 +41353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -41436,7 +41445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -41528,7 +41537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -41620,7 +41629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -41712,7 +41721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -41804,7 +41813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -41896,7 +41905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -41988,7 +41997,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -42080,7 +42089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -42172,7 +42181,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -42264,7 +42273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -42356,7 +42365,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -42448,7 +42457,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -42540,7 +42549,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -42632,7 +42641,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -42724,7 +42733,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -42816,7 +42825,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -42908,7 +42917,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -43000,7 +43009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -43092,7 +43101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -43184,7 +43193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -43276,7 +43285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -43368,7 +43377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -43460,7 +43469,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -43552,7 +43561,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -43644,7 +43653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -43736,7 +43745,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -43828,7 +43837,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -43920,7 +43929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -44012,7 +44021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -44104,7 +44113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -44193,7 +44202,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>0</v>
       </c>
@@ -44270,7 +44279,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>0</v>
       </c>
@@ -44350,7 +44359,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>0</v>
       </c>
@@ -44430,7 +44439,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0</v>
       </c>
@@ -44510,7 +44519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0</v>
       </c>
@@ -44590,7 +44599,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>0</v>
       </c>
@@ -44670,7 +44679,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>0</v>
       </c>
@@ -44750,7 +44759,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>0</v>
       </c>
@@ -44830,7 +44839,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>0</v>
       </c>
@@ -44910,7 +44919,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>0</v>
       </c>
@@ -44990,7 +44999,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>0</v>
       </c>
@@ -45070,7 +45079,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>0</v>
       </c>
@@ -45150,7 +45159,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>0</v>
       </c>
@@ -45230,7 +45239,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>0</v>
       </c>
@@ -45310,7 +45319,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>0</v>
       </c>
@@ -45390,7 +45399,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>0</v>
       </c>
@@ -45470,7 +45479,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>17</v>
       </c>
@@ -45550,7 +45559,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>8</v>
       </c>
@@ -45630,7 +45639,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>1</v>
       </c>
@@ -45710,7 +45719,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>0</v>
       </c>
@@ -45790,7 +45799,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>0</v>
       </c>
@@ -45870,7 +45879,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>0</v>
       </c>
@@ -45950,7 +45959,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>0</v>
       </c>
@@ -46030,7 +46039,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>0</v>
       </c>
@@ -46110,7 +46119,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>0</v>
       </c>
@@ -46190,7 +46199,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>0</v>
       </c>
@@ -46270,7 +46279,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>0</v>
       </c>
@@ -46350,7 +46359,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>0</v>
       </c>
@@ -46430,7 +46439,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="100" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>0</v>
       </c>
@@ -46510,7 +46519,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>0</v>
       </c>
@@ -46590,7 +46599,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>0</v>
       </c>
@@ -46670,7 +46679,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>0</v>
       </c>
@@ -46750,7 +46759,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>0</v>
       </c>
@@ -46830,7 +46839,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>0</v>
       </c>
@@ -46910,7 +46919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>0</v>
       </c>
@@ -46990,7 +46999,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>0</v>
       </c>
@@ -47070,7 +47079,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>0</v>
       </c>
@@ -47150,7 +47159,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>0</v>
       </c>
@@ -47230,7 +47239,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>0</v>
       </c>
@@ -47310,7 +47319,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>0</v>
       </c>
@@ -47390,7 +47399,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>0</v>
       </c>
@@ -47470,7 +47479,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>13</v>
       </c>
@@ -47550,7 +47559,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>20</v>
       </c>
@@ -47630,7 +47639,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>25</v>
       </c>
@@ -47710,7 +47719,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>28</v>
       </c>
@@ -47790,7 +47799,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>31</v>
       </c>
@@ -47870,7 +47879,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>34</v>
       </c>
@@ -47950,7 +47959,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="119" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>37</v>
       </c>
@@ -48030,7 +48039,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>38</v>
       </c>
@@ -48110,7 +48119,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="121" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>40</v>
       </c>
@@ -48190,7 +48199,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>41</v>
       </c>
@@ -48270,7 +48279,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>43</v>
       </c>
@@ -48350,7 +48359,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>44</v>
       </c>
@@ -48430,7 +48439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>45</v>
       </c>
@@ -48510,7 +48519,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>46</v>
       </c>
@@ -48590,7 +48599,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>47</v>
       </c>
@@ -48670,7 +48679,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>48</v>
       </c>
@@ -48750,7 +48759,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>48</v>
       </c>
@@ -48830,7 +48839,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>49</v>
       </c>
@@ -48910,7 +48919,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>50</v>
       </c>
@@ -48990,7 +48999,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>50</v>
       </c>
@@ -49070,7 +49079,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>50</v>
       </c>
@@ -49150,7 +49159,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>51</v>
       </c>
@@ -49230,7 +49239,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>51</v>
       </c>
@@ -49310,7 +49319,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>51</v>
       </c>
@@ -49390,7 +49399,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>51</v>
       </c>
@@ -49470,7 +49479,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>51</v>
       </c>
@@ -49550,7 +49559,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>51</v>
       </c>
@@ -49630,7 +49639,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>51</v>
       </c>
@@ -49710,7 +49719,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>51</v>
       </c>
@@ -49790,7 +49799,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>61</v>
       </c>
@@ -49816,7 +49825,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>58</v>
       </c>
@@ -49842,7 +49851,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>56</v>
       </c>
@@ -49868,7 +49877,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>54</v>
       </c>
@@ -49894,7 +49903,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>52</v>
       </c>
@@ -49920,7 +49929,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>51</v>
       </c>
@@ -49946,7 +49955,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>49</v>
       </c>
@@ -49972,7 +49981,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>159</v>
       </c>
@@ -49998,7 +50007,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>159</v>
       </c>
@@ -50024,7 +50033,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>159</v>
       </c>
@@ -50050,7 +50059,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>159</v>
       </c>
@@ -50076,7 +50085,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>159</v>
       </c>
@@ -50102,7 +50111,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>159</v>
       </c>
@@ -50128,7 +50137,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>159</v>
       </c>
@@ -50154,7 +50163,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>159</v>
       </c>
@@ -50180,7 +50189,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>159</v>
       </c>
@@ -50206,7 +50215,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>159</v>
       </c>
@@ -50232,7 +50241,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -50258,7 +50267,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -50284,7 +50293,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>159</v>
       </c>
@@ -50310,7 +50319,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>159</v>
       </c>
@@ -50336,7 +50345,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>159</v>
       </c>
@@ -50362,7 +50371,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>159</v>
       </c>
@@ -50388,7 +50397,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>159</v>
       </c>
@@ -50414,7 +50423,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>159</v>
       </c>
@@ -50440,7 +50449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>155</v>
       </c>
@@ -50466,7 +50475,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>150</v>
       </c>
@@ -50492,7 +50501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>147</v>
       </c>
@@ -50518,7 +50527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>145</v>
       </c>
@@ -50544,7 +50553,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>143</v>
       </c>
@@ -50570,7 +50579,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>142</v>
       </c>
@@ -50596,7 +50605,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>141</v>
       </c>
@@ -50622,7 +50631,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>140</v>
       </c>
@@ -50648,7 +50657,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>139</v>
       </c>
@@ -50674,7 +50683,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>138</v>
       </c>
@@ -50700,7 +50709,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>138</v>
       </c>
@@ -50726,7 +50735,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>138</v>
       </c>
@@ -50752,7 +50761,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>137</v>
       </c>
@@ -50778,7 +50787,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>137</v>
       </c>
@@ -50804,7 +50813,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>137</v>
       </c>
@@ -50830,7 +50839,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>137</v>
       </c>
@@ -50856,7 +50865,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>138</v>
       </c>
@@ -50882,7 +50891,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>138</v>
       </c>
@@ -50908,7 +50917,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>138</v>
       </c>
@@ -50934,7 +50943,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>138</v>
       </c>
@@ -50960,7 +50969,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>139</v>
       </c>
@@ -50986,7 +50995,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>139</v>
       </c>
@@ -51012,7 +51021,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>140</v>
       </c>
@@ -51038,7 +51047,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>140</v>
       </c>
@@ -51064,7 +51073,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>141</v>
       </c>
@@ -51090,7 +51099,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>141</v>
       </c>
@@ -51116,7 +51125,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>142</v>
       </c>
@@ -51142,7 +51151,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>142</v>
       </c>
@@ -51168,7 +51177,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>143</v>
       </c>
@@ -51194,7 +51203,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>143</v>
       </c>
@@ -51220,7 +51229,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>144</v>
       </c>
@@ -51246,7 +51255,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>145</v>
       </c>
@@ -51272,7 +51281,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>145</v>
       </c>
@@ -51298,7 +51307,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>146</v>
       </c>
@@ -51324,7 +51333,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>146</v>
       </c>
@@ -51350,7 +51359,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>147</v>
       </c>
@@ -51376,7 +51385,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>147</v>
       </c>
@@ -51402,7 +51411,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>148</v>
       </c>
@@ -51428,7 +51437,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>148</v>
       </c>
@@ -51454,7 +51463,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>149</v>
       </c>
@@ -51480,7 +51489,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>149</v>
       </c>
@@ -51506,7 +51515,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>150</v>
       </c>
@@ -51532,7 +51541,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>151</v>
       </c>
@@ -51558,7 +51567,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>151</v>
       </c>
@@ -51584,7 +51593,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D212">
         <v>159</v>
       </c>
@@ -51613,47 +51622,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648B726F-516E-4C11-AD84-AB99ED4A1061}">
-  <dimension ref="N263:N287"/>
+  <dimension ref="N263:Q356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P421" sqref="P421"/>
+    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AX396" sqref="AX396"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="263" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N263">
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N264">
         <v>86</v>
       </c>
     </row>
-    <row r="266" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N266">
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N267">
         <v>68</v>
       </c>
     </row>
-    <row r="269" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N269">
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N270">
         <v>81</v>
       </c>
     </row>
-    <row r="287" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N287">
         <v>36</v>
+      </c>
+    </row>
+    <row r="356" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q356" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/图像数据.xlsx
+++ b/图像数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\smart_car_19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cancer_star/Desktop/smart_car_19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F698F13-6081-4FFD-8E10-90A0160A72EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7667B467-A30D-984E-9275-22BC5D5DB8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8550,7 +8550,7 @@
           <c:x val="4.1778758030395768E-2"/>
           <c:y val="1.7573555612177761E-2"/>
           <c:w val="0.93126438517109056"/>
-          <c:h val="0.72791714481141045"/>
+          <c:h val="0.88967709522324323"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -36435,8 +36435,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76092</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>93509</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -36473,8 +36473,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -36663,8 +36663,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>600635</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -36696,13 +36696,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>581889</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>387926</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>110837</xdr:rowOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>33865</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -36769,16 +36769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>604981</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>159327</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>418715</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>40794</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>243540</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>57273</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -36921,16 +36921,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>177799</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>580570</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>614436</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37073,16 +37073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>635001</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>397934</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37301,16 +37301,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>83126</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>100059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>231913</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>164180</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>28138</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37339,16 +37339,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>487082</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>112806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>235643</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>174492</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>184843</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>89825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37685,9 +37685,9 @@
       <selection activeCell="AQ27" sqref="AQ27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43">
       <c r="A1">
         <v>1</v>
       </c>
@@ -37782,7 +37782,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43">
       <c r="A2">
         <v>2</v>
       </c>
@@ -37877,7 +37877,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43">
       <c r="A3">
         <v>3</v>
       </c>
@@ -37972,7 +37972,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43">
       <c r="A4">
         <v>4</v>
       </c>
@@ -38067,7 +38067,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43">
       <c r="A5">
         <v>5</v>
       </c>
@@ -38162,7 +38162,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43">
       <c r="A6">
         <v>6</v>
       </c>
@@ -38257,7 +38257,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43">
       <c r="A7">
         <v>7</v>
       </c>
@@ -38352,7 +38352,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43">
       <c r="A8">
         <v>8</v>
       </c>
@@ -38447,7 +38447,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43">
       <c r="A9">
         <v>9</v>
       </c>
@@ -38542,7 +38542,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43">
       <c r="A10">
         <v>10</v>
       </c>
@@ -38637,7 +38637,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43">
       <c r="A11">
         <v>11</v>
       </c>
@@ -38732,7 +38732,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43">
       <c r="A12">
         <v>12</v>
       </c>
@@ -38827,7 +38827,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43">
       <c r="A13">
         <v>13</v>
       </c>
@@ -38922,7 +38922,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43">
       <c r="A14">
         <v>14</v>
       </c>
@@ -39017,7 +39017,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43">
       <c r="A15">
         <v>15</v>
       </c>
@@ -39112,7 +39112,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43">
       <c r="A16">
         <v>16</v>
       </c>
@@ -39207,7 +39207,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43">
       <c r="A17">
         <v>17</v>
       </c>
@@ -39302,7 +39302,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43">
       <c r="A18">
         <v>18</v>
       </c>
@@ -39397,7 +39397,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43">
       <c r="A19">
         <v>19</v>
       </c>
@@ -39492,7 +39492,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43">
       <c r="A20">
         <v>20</v>
       </c>
@@ -39587,7 +39587,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43">
       <c r="A21">
         <v>21</v>
       </c>
@@ -39682,7 +39682,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43">
       <c r="A22">
         <v>22</v>
       </c>
@@ -39777,7 +39777,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43">
       <c r="A23">
         <v>23</v>
       </c>
@@ -39872,7 +39872,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43">
       <c r="A24">
         <v>24</v>
       </c>
@@ -39967,7 +39967,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43">
       <c r="A25">
         <v>25</v>
       </c>
@@ -40062,7 +40062,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43">
       <c r="A26">
         <v>26</v>
       </c>
@@ -40157,7 +40157,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43">
       <c r="A27">
         <v>27</v>
       </c>
@@ -40249,7 +40249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43">
       <c r="A28">
         <v>28</v>
       </c>
@@ -40341,7 +40341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43">
       <c r="A29">
         <v>29</v>
       </c>
@@ -40433,7 +40433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43">
       <c r="A30">
         <v>30</v>
       </c>
@@ -40525,7 +40525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43">
       <c r="A31">
         <v>31</v>
       </c>
@@ -40617,7 +40617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43">
       <c r="A32">
         <v>32</v>
       </c>
@@ -40709,7 +40709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42">
       <c r="A33">
         <v>33</v>
       </c>
@@ -40801,7 +40801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42">
       <c r="A34">
         <v>34</v>
       </c>
@@ -40893,7 +40893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42">
       <c r="A35">
         <v>35</v>
       </c>
@@ -40985,7 +40985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42">
       <c r="A36">
         <v>36</v>
       </c>
@@ -41077,7 +41077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42">
       <c r="A37">
         <v>37</v>
       </c>
@@ -41169,7 +41169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42">
       <c r="A38">
         <v>38</v>
       </c>
@@ -41261,7 +41261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42">
       <c r="A39">
         <v>39</v>
       </c>
@@ -41353,7 +41353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42">
       <c r="A40">
         <v>40</v>
       </c>
@@ -41445,7 +41445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42">
       <c r="A41">
         <v>41</v>
       </c>
@@ -41537,7 +41537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42">
       <c r="A42">
         <v>42</v>
       </c>
@@ -41629,7 +41629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42">
       <c r="A43">
         <v>43</v>
       </c>
@@ -41721,7 +41721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42">
       <c r="A44">
         <v>44</v>
       </c>
@@ -41813,7 +41813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42">
       <c r="A45">
         <v>45</v>
       </c>
@@ -41905,7 +41905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42">
       <c r="A46">
         <v>46</v>
       </c>
@@ -41997,7 +41997,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42">
       <c r="A47">
         <v>47</v>
       </c>
@@ -42089,7 +42089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42">
       <c r="A48">
         <v>48</v>
       </c>
@@ -42181,7 +42181,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42">
       <c r="A49">
         <v>49</v>
       </c>
@@ -42273,7 +42273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42">
       <c r="A50">
         <v>50</v>
       </c>
@@ -42365,7 +42365,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42">
       <c r="A51">
         <v>51</v>
       </c>
@@ -42457,7 +42457,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42">
       <c r="A52">
         <v>52</v>
       </c>
@@ -42549,7 +42549,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42">
       <c r="A53">
         <v>53</v>
       </c>
@@ -42641,7 +42641,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42">
       <c r="A54">
         <v>54</v>
       </c>
@@ -42733,7 +42733,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42">
       <c r="A55">
         <v>55</v>
       </c>
@@ -42825,7 +42825,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42">
       <c r="A56">
         <v>56</v>
       </c>
@@ -42917,7 +42917,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42">
       <c r="A57">
         <v>57</v>
       </c>
@@ -43009,7 +43009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42">
       <c r="A58">
         <v>58</v>
       </c>
@@ -43101,7 +43101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42">
       <c r="A59">
         <v>59</v>
       </c>
@@ -43193,7 +43193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42">
       <c r="A60">
         <v>60</v>
       </c>
@@ -43285,7 +43285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42">
       <c r="A61">
         <v>61</v>
       </c>
@@ -43377,7 +43377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42">
       <c r="A62">
         <v>62</v>
       </c>
@@ -43469,7 +43469,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42">
       <c r="A63">
         <v>63</v>
       </c>
@@ -43561,7 +43561,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42">
       <c r="A64">
         <v>64</v>
       </c>
@@ -43653,7 +43653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42">
       <c r="A65">
         <v>65</v>
       </c>
@@ -43745,7 +43745,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42">
       <c r="A66">
         <v>66</v>
       </c>
@@ -43837,7 +43837,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42">
       <c r="A67">
         <v>67</v>
       </c>
@@ -43929,7 +43929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42">
       <c r="A68">
         <v>68</v>
       </c>
@@ -44021,7 +44021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42">
       <c r="A69">
         <v>69</v>
       </c>
@@ -44113,7 +44113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42">
       <c r="A70">
         <v>70</v>
       </c>
@@ -44202,7 +44202,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42">
       <c r="B72">
         <v>0</v>
       </c>
@@ -44279,7 +44279,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42">
       <c r="B73">
         <v>0</v>
       </c>
@@ -44359,7 +44359,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42">
       <c r="B74">
         <v>0</v>
       </c>
@@ -44439,7 +44439,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42">
       <c r="B75">
         <v>0</v>
       </c>
@@ -44519,7 +44519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42">
       <c r="B76">
         <v>0</v>
       </c>
@@ -44599,7 +44599,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42">
       <c r="B77">
         <v>0</v>
       </c>
@@ -44679,7 +44679,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42">
       <c r="B78">
         <v>0</v>
       </c>
@@ -44759,7 +44759,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42">
       <c r="B79">
         <v>0</v>
       </c>
@@ -44839,7 +44839,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42">
       <c r="B80">
         <v>0</v>
       </c>
@@ -44919,7 +44919,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:39">
       <c r="B81">
         <v>0</v>
       </c>
@@ -44999,7 +44999,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:39">
       <c r="B82">
         <v>0</v>
       </c>
@@ -45079,7 +45079,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:39">
       <c r="B83">
         <v>0</v>
       </c>
@@ -45159,7 +45159,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:39">
       <c r="B84">
         <v>0</v>
       </c>
@@ -45239,7 +45239,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:39">
       <c r="B85">
         <v>0</v>
       </c>
@@ -45319,7 +45319,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:39">
       <c r="B86">
         <v>0</v>
       </c>
@@ -45399,7 +45399,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:39">
       <c r="B87">
         <v>0</v>
       </c>
@@ -45479,7 +45479,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:39">
       <c r="B88">
         <v>17</v>
       </c>
@@ -45559,7 +45559,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:39">
       <c r="B89">
         <v>8</v>
       </c>
@@ -45639,7 +45639,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:39">
       <c r="B90">
         <v>1</v>
       </c>
@@ -45719,7 +45719,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:39">
       <c r="B91">
         <v>0</v>
       </c>
@@ -45799,7 +45799,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:39">
       <c r="B92">
         <v>0</v>
       </c>
@@ -45879,7 +45879,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:39">
       <c r="B93">
         <v>0</v>
       </c>
@@ -45959,7 +45959,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:39">
       <c r="B94">
         <v>0</v>
       </c>
@@ -46039,7 +46039,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:39">
       <c r="B95">
         <v>0</v>
       </c>
@@ -46119,7 +46119,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:39">
       <c r="B96">
         <v>0</v>
       </c>
@@ -46199,7 +46199,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:39">
       <c r="B97">
         <v>0</v>
       </c>
@@ -46279,7 +46279,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:39">
       <c r="B98">
         <v>0</v>
       </c>
@@ -46359,7 +46359,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:39">
       <c r="B99">
         <v>0</v>
       </c>
@@ -46439,7 +46439,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="100" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:39">
       <c r="B100">
         <v>0</v>
       </c>
@@ -46519,7 +46519,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:39">
       <c r="B101">
         <v>0</v>
       </c>
@@ -46599,7 +46599,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:39">
       <c r="B102">
         <v>0</v>
       </c>
@@ -46679,7 +46679,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:39">
       <c r="B103">
         <v>0</v>
       </c>
@@ -46759,7 +46759,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:39">
       <c r="B104">
         <v>0</v>
       </c>
@@ -46839,7 +46839,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:39">
       <c r="B105">
         <v>0</v>
       </c>
@@ -46919,7 +46919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:39">
       <c r="B106">
         <v>0</v>
       </c>
@@ -46999,7 +46999,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:39">
       <c r="B107">
         <v>0</v>
       </c>
@@ -47079,7 +47079,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:39">
       <c r="B108">
         <v>0</v>
       </c>
@@ -47159,7 +47159,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:39">
       <c r="B109">
         <v>0</v>
       </c>
@@ -47239,7 +47239,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:39">
       <c r="B110">
         <v>0</v>
       </c>
@@ -47319,7 +47319,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:39">
       <c r="B111">
         <v>0</v>
       </c>
@@ -47399,7 +47399,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:39">
       <c r="B112">
         <v>0</v>
       </c>
@@ -47479,7 +47479,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:39">
       <c r="B113">
         <v>13</v>
       </c>
@@ -47559,7 +47559,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:39">
       <c r="B114">
         <v>20</v>
       </c>
@@ -47639,7 +47639,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:39">
       <c r="B115">
         <v>25</v>
       </c>
@@ -47719,7 +47719,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:39">
       <c r="B116">
         <v>28</v>
       </c>
@@ -47799,7 +47799,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:39">
       <c r="B117">
         <v>31</v>
       </c>
@@ -47879,7 +47879,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:39">
       <c r="B118">
         <v>34</v>
       </c>
@@ -47959,7 +47959,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="119" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:39">
       <c r="B119">
         <v>37</v>
       </c>
@@ -48039,7 +48039,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:39">
       <c r="B120">
         <v>38</v>
       </c>
@@ -48119,7 +48119,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="121" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:39">
       <c r="B121">
         <v>40</v>
       </c>
@@ -48199,7 +48199,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:39">
       <c r="B122">
         <v>41</v>
       </c>
@@ -48279,7 +48279,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:39">
       <c r="B123">
         <v>43</v>
       </c>
@@ -48359,7 +48359,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:39">
       <c r="B124">
         <v>44</v>
       </c>
@@ -48439,7 +48439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:39">
       <c r="B125">
         <v>45</v>
       </c>
@@ -48519,7 +48519,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:39">
       <c r="B126">
         <v>46</v>
       </c>
@@ -48599,7 +48599,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:39">
       <c r="B127">
         <v>47</v>
       </c>
@@ -48679,7 +48679,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:39">
       <c r="B128">
         <v>48</v>
       </c>
@@ -48759,7 +48759,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:39">
       <c r="B129">
         <v>48</v>
       </c>
@@ -48839,7 +48839,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:39">
       <c r="B130">
         <v>49</v>
       </c>
@@ -48919,7 +48919,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:39">
       <c r="B131">
         <v>50</v>
       </c>
@@ -48999,7 +48999,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:39">
       <c r="B132">
         <v>50</v>
       </c>
@@ -49079,7 +49079,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:39">
       <c r="B133">
         <v>50</v>
       </c>
@@ -49159,7 +49159,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:39">
       <c r="B134">
         <v>51</v>
       </c>
@@ -49239,7 +49239,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:39">
       <c r="B135">
         <v>51</v>
       </c>
@@ -49319,7 +49319,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:39">
       <c r="B136">
         <v>51</v>
       </c>
@@ -49399,7 +49399,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:39">
       <c r="B137">
         <v>51</v>
       </c>
@@ -49479,7 +49479,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:39">
       <c r="B138">
         <v>51</v>
       </c>
@@ -49559,7 +49559,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:39">
       <c r="B139">
         <v>51</v>
       </c>
@@ -49639,7 +49639,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:39">
       <c r="B140">
         <v>51</v>
       </c>
@@ -49719,7 +49719,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:39">
       <c r="B141">
         <v>51</v>
       </c>
@@ -49799,7 +49799,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:39">
       <c r="A143">
         <v>61</v>
       </c>
@@ -49825,7 +49825,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:39">
       <c r="A144">
         <v>58</v>
       </c>
@@ -49851,7 +49851,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>56</v>
       </c>
@@ -49877,7 +49877,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>54</v>
       </c>
@@ -49903,7 +49903,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>52</v>
       </c>
@@ -49929,7 +49929,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>51</v>
       </c>
@@ -49955,7 +49955,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>49</v>
       </c>
@@ -49981,7 +49981,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>159</v>
       </c>
@@ -50007,7 +50007,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>159</v>
       </c>
@@ -50033,7 +50033,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>159</v>
       </c>
@@ -50059,7 +50059,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>159</v>
       </c>
@@ -50085,7 +50085,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>159</v>
       </c>
@@ -50111,7 +50111,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155">
         <v>159</v>
       </c>
@@ -50137,7 +50137,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156">
         <v>159</v>
       </c>
@@ -50163,7 +50163,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157">
         <v>159</v>
       </c>
@@ -50189,7 +50189,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158">
         <v>159</v>
       </c>
@@ -50215,7 +50215,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159">
         <v>159</v>
       </c>
@@ -50241,7 +50241,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160">
         <v>159</v>
       </c>
@@ -50267,7 +50267,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161">
         <v>159</v>
       </c>
@@ -50293,7 +50293,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>159</v>
       </c>
@@ -50319,7 +50319,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>159</v>
       </c>
@@ -50345,7 +50345,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164">
         <v>159</v>
       </c>
@@ -50371,7 +50371,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165">
         <v>159</v>
       </c>
@@ -50397,7 +50397,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166">
         <v>159</v>
       </c>
@@ -50423,7 +50423,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167">
         <v>159</v>
       </c>
@@ -50449,7 +50449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168">
         <v>155</v>
       </c>
@@ -50475,7 +50475,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169">
         <v>150</v>
       </c>
@@ -50501,7 +50501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170">
         <v>147</v>
       </c>
@@ -50527,7 +50527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171">
         <v>145</v>
       </c>
@@ -50553,7 +50553,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>143</v>
       </c>
@@ -50579,7 +50579,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>142</v>
       </c>
@@ -50605,7 +50605,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174">
         <v>141</v>
       </c>
@@ -50631,7 +50631,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175">
         <v>140</v>
       </c>
@@ -50657,7 +50657,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176">
         <v>139</v>
       </c>
@@ -50683,7 +50683,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177">
         <v>138</v>
       </c>
@@ -50709,7 +50709,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178">
         <v>138</v>
       </c>
@@ -50735,7 +50735,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179">
         <v>138</v>
       </c>
@@ -50761,7 +50761,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180">
         <v>137</v>
       </c>
@@ -50787,7 +50787,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181">
         <v>137</v>
       </c>
@@ -50813,7 +50813,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182">
         <v>137</v>
       </c>
@@ -50839,7 +50839,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183">
         <v>137</v>
       </c>
@@ -50865,7 +50865,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11">
       <c r="A184">
         <v>138</v>
       </c>
@@ -50891,7 +50891,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11">
       <c r="A185">
         <v>138</v>
       </c>
@@ -50917,7 +50917,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
       <c r="A186">
         <v>138</v>
       </c>
@@ -50943,7 +50943,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11">
       <c r="A187">
         <v>138</v>
       </c>
@@ -50969,7 +50969,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="A188">
         <v>139</v>
       </c>
@@ -50995,7 +50995,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="A189">
         <v>139</v>
       </c>
@@ -51021,7 +51021,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11">
       <c r="A190">
         <v>140</v>
       </c>
@@ -51047,7 +51047,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191">
         <v>140</v>
       </c>
@@ -51073,7 +51073,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192">
         <v>141</v>
       </c>
@@ -51099,7 +51099,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>141</v>
       </c>
@@ -51125,7 +51125,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>142</v>
       </c>
@@ -51151,7 +51151,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>142</v>
       </c>
@@ -51177,7 +51177,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>143</v>
       </c>
@@ -51203,7 +51203,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>143</v>
       </c>
@@ -51229,7 +51229,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>144</v>
       </c>
@@ -51255,7 +51255,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11">
       <c r="A199">
         <v>145</v>
       </c>
@@ -51281,7 +51281,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11">
       <c r="A200">
         <v>145</v>
       </c>
@@ -51307,7 +51307,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11">
       <c r="A201">
         <v>146</v>
       </c>
@@ -51333,7 +51333,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
       <c r="A202">
         <v>146</v>
       </c>
@@ -51359,7 +51359,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11">
       <c r="A203">
         <v>147</v>
       </c>
@@ -51385,7 +51385,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11">
       <c r="A204">
         <v>147</v>
       </c>
@@ -51411,7 +51411,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11">
       <c r="A205">
         <v>148</v>
       </c>
@@ -51437,7 +51437,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11">
       <c r="A206">
         <v>148</v>
       </c>
@@ -51463,7 +51463,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="A207">
         <v>149</v>
       </c>
@@ -51489,7 +51489,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11">
       <c r="A208">
         <v>149</v>
       </c>
@@ -51515,7 +51515,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11">
       <c r="A209">
         <v>150</v>
       </c>
@@ -51541,7 +51541,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11">
       <c r="A210">
         <v>151</v>
       </c>
@@ -51567,7 +51567,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11">
       <c r="A211">
         <v>151</v>
       </c>
@@ -51593,7 +51593,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11">
       <c r="D212">
         <v>159</v>
       </c>
@@ -51624,48 +51624,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648B726F-516E-4C11-AD84-AB99ED4A1061}">
   <dimension ref="N263:Q356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AX396" sqref="AX396"/>
+    <sheetView tabSelected="1" topLeftCell="D230" zoomScale="60" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="263" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="14:14">
       <c r="N263">
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="14:14">
       <c r="N264">
         <v>86</v>
       </c>
     </row>
-    <row r="266" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="14:14">
       <c r="N266">
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="14:14">
       <c r="N267">
         <v>68</v>
       </c>
     </row>
-    <row r="269" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="14:14">
       <c r="N269">
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="14:14">
       <c r="N270">
         <v>81</v>
       </c>
     </row>
-    <row r="287" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="14:14">
       <c r="N287">
         <v>36</v>
       </c>
     </row>
-    <row r="356" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="17:17">
       <c r="Q356" t="s">
         <v>0</v>
       </c>

--- a/图像数据.xlsx
+++ b/图像数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cancer_star/Desktop/smart_car_19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\smart_car_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7667B467-A30D-984E-9275-22BC5D5DB8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D1294F-89B0-4640-8378-BFAFDF45273B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +129,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>弯道</a:t>
+              <a:t>圆环状态</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -165,7 +170,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.1778758030395768E-2"/>
+          <c:y val="1.7573555612177761E-2"/>
+          <c:w val="0.93126438517109056"/>
+          <c:h val="0.88967709522324323"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -198,192 +213,192 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$1:$AA$70</c:f>
+              <c:f>Sheet1!$B$1:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>138</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>131</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>126</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>122</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>119</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>117</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>114</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>111</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>108</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>105</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>103</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>101</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>99</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>97</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>96</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>94</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>92</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>90</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>87</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>86</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>84</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>83</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>81</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>80</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>78</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>77</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>75</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>74</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>73</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>72</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>71</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>69</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>68</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>67</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>66</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>65</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>64</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>63</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>62</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>61</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>59</c:v>
@@ -392,25 +407,25 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="68">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -418,7 +433,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9057-4738-B370-ECD777DD58A0}"/>
+              <c16:uniqueId val="{00000000-7D95-41F8-8A4E-6AB15298C201}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -451,51 +466,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AB$1:$AB$70</c:f>
+              <c:f>Sheet1!$C$1:$C$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>159</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>159</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>159</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>159</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>159</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>159</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>159</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>159</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>159</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>159</c:v>
@@ -555,115 +570,115 @@
                   <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>159</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>159</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>159</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>159</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>159</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>159</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>159</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>159</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>159</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>159</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>159</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>159</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>159</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>159</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>159</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>159</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>159</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>159</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>159</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>159</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>159</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>159</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>159</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>159</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>159</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>159</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>159</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>159</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>159</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>159</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>159</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>159</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>157</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>157</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>157</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>157</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>157</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,7 +686,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9057-4738-B370-ECD777DD58A0}"/>
+              <c16:uniqueId val="{00000001-7D95-41F8-8A4E-6AB15298C201}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -704,207 +719,207 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$1:$AC$70</c:f>
+              <c:f>Sheet1!$D$1:$D$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>79</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>79</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>152</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>148</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>145</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>142</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>141</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>139</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>138</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>136</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>135</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>133</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>132</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>131</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>130</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>129</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>128</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>127</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>126</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>125</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>124</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>124</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>123</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>122</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>121</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>121</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>120</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>119</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>118</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>118</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>117</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>116</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>116</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>115</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>115</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>114</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>114</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>113</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>113</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>112</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>112</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>111</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>111</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>110</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>110</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>109</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>109</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>108</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>108</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>107</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>106</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>105</c:v>
@@ -916,7 +931,7 @@
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>104</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,7 +939,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9057-4738-B370-ECD777DD58A0}"/>
+              <c16:uniqueId val="{00000002-7D95-41F8-8A4E-6AB15298C201}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -938,11 +953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1227472912"/>
-        <c:axId val="1227472432"/>
+        <c:axId val="1370612639"/>
+        <c:axId val="1370610239"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1227472912"/>
+        <c:axId val="1370612639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +999,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227472432"/>
+        <c:crossAx val="1370610239"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -992,7 +1007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1227472432"/>
+        <c:axId val="1370610239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1058,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227472912"/>
+        <c:crossAx val="1370612639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1131,477 +1146,6 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Y$73:$Y$141</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>146</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6181-492C-88EB-D49209FC70AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1380944735"/>
-        <c:axId val="1380938975"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1380944735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1380938975"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1380938975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1380944735"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2392,7 +1936,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3150,7 +2694,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3908,7 +3452,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4666,7 +4210,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -5424,7 +4968,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6182,7 +5726,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6940,7 +6484,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -7698,7 +7242,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8466,1058 +8010,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>圆环状态</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>1</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.1778758030395768E-2"/>
-          <c:y val="1.7573555612177761E-2"/>
-          <c:w val="0.93126438517109056"/>
-          <c:h val="0.88967709522324323"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$B$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D95-41F8-8A4E-6AB15298C201}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$C$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>156</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7D95-41F8-8A4E-6AB15298C201}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$1:$D$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>105</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7D95-41F8-8A4E-6AB15298C201}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1370612639"/>
-        <c:axId val="1370610239"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1370612639"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1370610239"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1370610239"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1370612639"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -10275,7 +8768,1013 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>直线状态</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$1:$N$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C878-415E-BA78-98383527DC14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$1:$O$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C878-415E-BA78-98383527DC14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$1:$P$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C878-415E-BA78-98383527DC14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1423309775"/>
+        <c:axId val="1423307375"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1423309775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1423307375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1423307375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1423309775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -11033,7 +10532,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -11791,7 +11290,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -12549,7 +12048,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -13301,7 +12800,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -14059,7 +13558,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -14847,7 +14346,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -15850,7 +15349,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -15865,38 +15364,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>直线状态</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15945,223 +15412,235 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$1:$N$70</c:f>
+              <c:f>Sheet1!$AP$1:$AP$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>82</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>81</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>78</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>78</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>77</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>77</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>76</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>76</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>75</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>74</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>74</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>73</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>73</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>73</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>72</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>72</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>71</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>71</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>71</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>71</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>69</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>69</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>68</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>68</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>67</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>67</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>66</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>66</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>65</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>65</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>64</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>64</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>64</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>63</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>63</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>62</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>62</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>61</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>61</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>59</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>59</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>58</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>58</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>58</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>57</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>57</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>56</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>56</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16169,7 +15648,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C878-415E-BA78-98383527DC14}"/>
+              <c16:uniqueId val="{00000000-4CC5-44CE-AD15-D46373369C78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16186,223 +15665,235 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$1:$O$70</c:f>
+              <c:f>Sheet1!$AQ$1:$AQ$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>159</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>119</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>135</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>136</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>136</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>137</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>137</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>137</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>138</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>138</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>138</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>139</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>140</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>140</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>141</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>142</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>142</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>143</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>144</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>144</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>145</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>145</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>146</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>146</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>147</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>147</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>148</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>148</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>149</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>149</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>150</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>150</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>151</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>151</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>151</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>152</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>152</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>153</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>153</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>154</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>154</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>155</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>155</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16410,248 +15901,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C878-415E-BA78-98383527DC14}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$P$1:$P$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>105</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C878-415E-BA78-98383527DC14}"/>
+              <c16:uniqueId val="{00000001-4CC5-44CE-AD15-D46373369C78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16663,12 +15913,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1423309775"/>
-        <c:axId val="1423307375"/>
+        <c:axId val="93284144"/>
+        <c:axId val="93278864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1423309775"/>
+        <c:axId val="93284144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16710,7 +15961,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1423307375"/>
+        <c:crossAx val="93278864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16718,7 +15969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1423307375"/>
+        <c:axId val="93278864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16769,7 +16020,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1423309775"/>
+        <c:crossAx val="93284144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16856,7 +16107,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -17897,7 +17148,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -18933,7 +18184,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -19635,7 +18886,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -20609,7 +19860,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -21130,7 +20381,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -21549,6 +20800,477 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1292571872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$73:$Y$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6181-492C-88EB-D49209FC70AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1380944735"/>
+        <c:axId val="1380938975"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1380944735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380938975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1380938975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380944735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31765,7 +31487,7 @@
 </file>
 
 <file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -31873,6 +31595,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -31883,6 +31610,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -31914,6 +31646,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -32268,7 +32003,7 @@
 </file>
 
 <file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -32376,11 +32111,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -32391,11 +32121,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -32427,9 +32152,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -34848,7 +34570,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -34956,11 +34678,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -34971,11 +34688,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -35007,9 +34719,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -35364,7 +35073,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -35472,6 +35181,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -35482,6 +35196,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -35513,6 +35232,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -35867,7 +35589,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -35975,11 +35697,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -35990,11 +35707,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -36026,9 +35738,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -36383,47 +36092,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>140624</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>107026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="图表 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193CD9D3-E90F-D2E6-DD1F-5D6F8264F777}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -37413,6 +37081,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8F0372-B8E5-4C1C-9E52-64A727D8B640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -37681,13 +37387,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ212"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AQ27" sqref="AQ27"/>
+    <sheetView topLeftCell="AL46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1:AQ70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -37776,13 +37482,13 @@
         <v>159</v>
       </c>
       <c r="AP1">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="AQ1">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -37871,13 +37577,13 @@
         <v>159</v>
       </c>
       <c r="AP2">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="AQ2">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -37966,13 +37672,13 @@
         <v>159</v>
       </c>
       <c r="AP3">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="AQ3">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -38061,13 +37767,13 @@
         <v>159</v>
       </c>
       <c r="AP4">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="AQ4">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -38156,13 +37862,13 @@
         <v>159</v>
       </c>
       <c r="AP5">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="AQ5">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -38251,13 +37957,13 @@
         <v>159</v>
       </c>
       <c r="AP6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AQ6">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -38346,13 +38052,13 @@
         <v>159</v>
       </c>
       <c r="AP7">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AQ7">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -38441,13 +38147,13 @@
         <v>159</v>
       </c>
       <c r="AP8">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AQ8">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -38536,13 +38242,13 @@
         <v>159</v>
       </c>
       <c r="AP9">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="AQ9">
-        <v>137</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -38631,13 +38337,13 @@
         <v>159</v>
       </c>
       <c r="AP10">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="AQ10">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -38726,13 +38432,13 @@
         <v>159</v>
       </c>
       <c r="AP11">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="AQ11">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -38821,13 +38527,13 @@
         <v>159</v>
       </c>
       <c r="AP12">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AQ12">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -38916,13 +38622,13 @@
         <v>159</v>
       </c>
       <c r="AP13">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="AQ13">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -39011,13 +38717,13 @@
         <v>159</v>
       </c>
       <c r="AP14">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="AQ14">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -39106,13 +38812,13 @@
         <v>159</v>
       </c>
       <c r="AP15">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="AQ15">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -39201,13 +38907,13 @@
         <v>159</v>
       </c>
       <c r="AP16">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="AQ16">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -39296,13 +39002,13 @@
         <v>159</v>
       </c>
       <c r="AP17">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="AQ17">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -39391,13 +39097,13 @@
         <v>159</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="AQ18">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -39486,13 +39192,13 @@
         <v>159</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="AQ19">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -39581,13 +39287,13 @@
         <v>159</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="AQ20">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -39676,13 +39382,13 @@
         <v>159</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="AQ21">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -39771,13 +39477,13 @@
         <v>159</v>
       </c>
       <c r="AP22">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="AQ22">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -39866,13 +39572,13 @@
         <v>159</v>
       </c>
       <c r="AP23">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="AQ23">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -39961,13 +39667,13 @@
         <v>159</v>
       </c>
       <c r="AP24">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="AQ24">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -40056,13 +39762,13 @@
         <v>159</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="AQ25">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -40151,13 +39857,13 @@
         <v>159</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="AQ26">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -40246,10 +39952,13 @@
         <v>159</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="AQ27">
+        <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -40338,10 +40047,13 @@
         <v>159</v>
       </c>
       <c r="AP28">
+        <v>187</v>
+      </c>
+      <c r="AQ28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -40430,10 +40142,13 @@
         <v>159</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="AQ29">
+        <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -40522,10 +40237,13 @@
         <v>159</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="AQ30">
+        <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -40614,10 +40332,13 @@
         <v>159</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="AQ31">
+        <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -40706,10 +40427,13 @@
         <v>159</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="AQ32">
+        <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -40798,10 +40522,13 @@
         <v>159</v>
       </c>
       <c r="AP33">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="AQ33">
+        <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -40890,10 +40617,13 @@
         <v>159</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="AQ34">
+        <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -40982,10 +40712,13 @@
         <v>159</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="AQ35">
+        <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -41074,10 +40807,13 @@
         <v>159</v>
       </c>
       <c r="AP36">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="AQ36">
+        <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -41166,10 +40902,13 @@
         <v>159</v>
       </c>
       <c r="AP37">
-        <v>3</v>
+        <v>187</v>
+      </c>
+      <c r="AQ37">
+        <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -41258,10 +40997,13 @@
         <v>159</v>
       </c>
       <c r="AP38">
-        <v>7</v>
+        <v>187</v>
+      </c>
+      <c r="AQ38">
+        <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -41350,10 +41092,13 @@
         <v>159</v>
       </c>
       <c r="AP39">
-        <v>13</v>
+        <v>187</v>
+      </c>
+      <c r="AQ39">
+        <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -41442,10 +41187,13 @@
         <v>159</v>
       </c>
       <c r="AP40">
-        <v>19</v>
+        <v>187</v>
+      </c>
+      <c r="AQ40">
+        <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -41534,10 +41282,13 @@
         <v>159</v>
       </c>
       <c r="AP41">
-        <v>26</v>
+        <v>187</v>
+      </c>
+      <c r="AQ41">
+        <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -41626,10 +41377,13 @@
         <v>159</v>
       </c>
       <c r="AP42">
-        <v>33</v>
+        <v>187</v>
+      </c>
+      <c r="AQ42">
+        <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -41718,10 +41472,13 @@
         <v>141</v>
       </c>
       <c r="AP43">
-        <v>40</v>
+        <v>187</v>
+      </c>
+      <c r="AQ43">
+        <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -41810,10 +41567,13 @@
         <v>159</v>
       </c>
       <c r="AP44">
-        <v>47</v>
+        <v>187</v>
+      </c>
+      <c r="AQ44">
+        <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -41902,10 +41662,13 @@
         <v>159</v>
       </c>
       <c r="AP45">
-        <v>55</v>
+        <v>187</v>
+      </c>
+      <c r="AQ45">
+        <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -41994,10 +41757,13 @@
         <v>159</v>
       </c>
       <c r="AP46">
-        <v>65</v>
+        <v>187</v>
+      </c>
+      <c r="AQ46">
+        <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -42086,10 +41852,13 @@
         <v>159</v>
       </c>
       <c r="AP47">
-        <v>67</v>
+        <v>187</v>
+      </c>
+      <c r="AQ47">
+        <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -42178,10 +41947,13 @@
         <v>159</v>
       </c>
       <c r="AP48">
-        <v>67</v>
+        <v>187</v>
+      </c>
+      <c r="AQ48">
+        <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:42">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -42270,10 +42042,13 @@
         <v>159</v>
       </c>
       <c r="AP49">
-        <v>67</v>
+        <v>187</v>
+      </c>
+      <c r="AQ49">
+        <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:42">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -42362,10 +42137,13 @@
         <v>159</v>
       </c>
       <c r="AP50">
-        <v>66</v>
+        <v>187</v>
+      </c>
+      <c r="AQ50">
+        <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:42">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -42454,10 +42232,13 @@
         <v>159</v>
       </c>
       <c r="AP51">
-        <v>66</v>
+        <v>187</v>
+      </c>
+      <c r="AQ51">
+        <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:42">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -42546,10 +42327,13 @@
         <v>159</v>
       </c>
       <c r="AP52">
-        <v>65</v>
+        <v>187</v>
+      </c>
+      <c r="AQ52">
+        <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:42">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -42638,10 +42422,13 @@
         <v>159</v>
       </c>
       <c r="AP53">
-        <v>64</v>
+        <v>187</v>
+      </c>
+      <c r="AQ53">
+        <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:42">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -42730,10 +42517,13 @@
         <v>153</v>
       </c>
       <c r="AP54">
-        <v>63</v>
+        <v>187</v>
+      </c>
+      <c r="AQ54">
+        <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:42">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -42822,10 +42612,13 @@
         <v>154</v>
       </c>
       <c r="AP55">
-        <v>62</v>
+        <v>187</v>
+      </c>
+      <c r="AQ55">
+        <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:42">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -42914,10 +42707,13 @@
         <v>154</v>
       </c>
       <c r="AP56">
-        <v>62</v>
+        <v>187</v>
+      </c>
+      <c r="AQ56">
+        <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:42">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -43006,10 +42802,13 @@
         <v>154</v>
       </c>
       <c r="AP57">
-        <v>61</v>
+        <v>187</v>
+      </c>
+      <c r="AQ57">
+        <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:42">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -43098,10 +42897,13 @@
         <v>155</v>
       </c>
       <c r="AP58">
-        <v>60</v>
+        <v>187</v>
+      </c>
+      <c r="AQ58">
+        <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:42">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -43190,10 +42992,13 @@
         <v>155</v>
       </c>
       <c r="AP59">
-        <v>59</v>
+        <v>187</v>
+      </c>
+      <c r="AQ59">
+        <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:42">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -43282,10 +43087,13 @@
         <v>155</v>
       </c>
       <c r="AP60">
-        <v>59</v>
+        <v>187</v>
+      </c>
+      <c r="AQ60">
+        <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:42">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -43374,10 +43182,13 @@
         <v>156</v>
       </c>
       <c r="AP61">
-        <v>58</v>
+        <v>187</v>
+      </c>
+      <c r="AQ61">
+        <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:42">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -43466,10 +43277,13 @@
         <v>156</v>
       </c>
       <c r="AP62">
-        <v>57</v>
+        <v>187</v>
+      </c>
+      <c r="AQ62">
+        <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:42">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -43558,10 +43372,13 @@
         <v>156</v>
       </c>
       <c r="AP63">
-        <v>56</v>
+        <v>187</v>
+      </c>
+      <c r="AQ63">
+        <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:42">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -43650,10 +43467,13 @@
         <v>157</v>
       </c>
       <c r="AP64">
-        <v>55</v>
+        <v>187</v>
+      </c>
+      <c r="AQ64">
+        <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:42">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -43742,10 +43562,13 @@
         <v>157</v>
       </c>
       <c r="AP65">
-        <v>55</v>
+        <v>187</v>
+      </c>
+      <c r="AQ65">
+        <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:42">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -43834,10 +43657,13 @@
         <v>158</v>
       </c>
       <c r="AP66">
-        <v>54</v>
+        <v>187</v>
+      </c>
+      <c r="AQ66">
+        <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:42">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -43926,10 +43752,13 @@
         <v>158</v>
       </c>
       <c r="AP67">
-        <v>53</v>
+        <v>187</v>
+      </c>
+      <c r="AQ67">
+        <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:42">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -44018,10 +43847,13 @@
         <v>158</v>
       </c>
       <c r="AP68">
-        <v>52</v>
+        <v>187</v>
+      </c>
+      <c r="AQ68">
+        <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:42">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -44110,10 +43942,13 @@
         <v>159</v>
       </c>
       <c r="AP69">
-        <v>51</v>
+        <v>187</v>
+      </c>
+      <c r="AQ69">
+        <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:42">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -44201,8 +44036,14 @@
       <c r="AN70">
         <v>159</v>
       </c>
+      <c r="AP70">
+        <v>187</v>
+      </c>
+      <c r="AQ70">
+        <v>52</v>
+      </c>
     </row>
-    <row r="72" spans="1:42">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>0</v>
       </c>
@@ -44279,7 +44120,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:42">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>0</v>
       </c>
@@ -44359,7 +44200,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:42">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>0</v>
       </c>
@@ -44439,7 +44280,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:42">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0</v>
       </c>
@@ -44519,7 +44360,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:42">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0</v>
       </c>
@@ -44599,7 +44440,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:42">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>0</v>
       </c>
@@ -44679,7 +44520,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:42">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>0</v>
       </c>
@@ -44759,7 +44600,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:42">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>0</v>
       </c>
@@ -44839,7 +44680,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:42">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>0</v>
       </c>
@@ -44919,7 +44760,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="2:39">
+    <row r="81" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>0</v>
       </c>
@@ -44999,7 +44840,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="2:39">
+    <row r="82" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>0</v>
       </c>
@@ -45079,7 +44920,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="2:39">
+    <row r="83" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>0</v>
       </c>
@@ -45159,7 +45000,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="2:39">
+    <row r="84" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>0</v>
       </c>
@@ -45239,7 +45080,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="2:39">
+    <row r="85" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>0</v>
       </c>
@@ -45319,7 +45160,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="2:39">
+    <row r="86" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>0</v>
       </c>
@@ -45399,7 +45240,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="2:39">
+    <row r="87" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>0</v>
       </c>
@@ -45479,7 +45320,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="2:39">
+    <row r="88" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>17</v>
       </c>
@@ -45559,7 +45400,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="2:39">
+    <row r="89" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>8</v>
       </c>
@@ -45639,7 +45480,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="2:39">
+    <row r="90" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>1</v>
       </c>
@@ -45719,7 +45560,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="2:39">
+    <row r="91" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>0</v>
       </c>
@@ -45799,7 +45640,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="2:39">
+    <row r="92" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>0</v>
       </c>
@@ -45879,7 +45720,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="2:39">
+    <row r="93" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>0</v>
       </c>
@@ -45959,7 +45800,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="2:39">
+    <row r="94" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>0</v>
       </c>
@@ -46039,7 +45880,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="2:39">
+    <row r="95" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>0</v>
       </c>
@@ -46119,7 +45960,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="2:39">
+    <row r="96" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>0</v>
       </c>
@@ -46199,7 +46040,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="2:39">
+    <row r="97" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>0</v>
       </c>
@@ -46279,7 +46120,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="2:39">
+    <row r="98" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>0</v>
       </c>
@@ -46359,7 +46200,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="2:39">
+    <row r="99" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>0</v>
       </c>
@@ -46439,7 +46280,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="100" spans="2:39">
+    <row r="100" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>0</v>
       </c>
@@ -46519,7 +46360,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="2:39">
+    <row r="101" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>0</v>
       </c>
@@ -46599,7 +46440,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="2:39">
+    <row r="102" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>0</v>
       </c>
@@ -46679,7 +46520,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="2:39">
+    <row r="103" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>0</v>
       </c>
@@ -46759,7 +46600,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="2:39">
+    <row r="104" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>0</v>
       </c>
@@ -46839,7 +46680,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="2:39">
+    <row r="105" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>0</v>
       </c>
@@ -46919,7 +46760,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="2:39">
+    <row r="106" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>0</v>
       </c>
@@ -46999,7 +46840,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="2:39">
+    <row r="107" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>0</v>
       </c>
@@ -47079,7 +46920,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="2:39">
+    <row r="108" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>0</v>
       </c>
@@ -47159,7 +47000,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="2:39">
+    <row r="109" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>0</v>
       </c>
@@ -47239,7 +47080,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="2:39">
+    <row r="110" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>0</v>
       </c>
@@ -47319,7 +47160,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="2:39">
+    <row r="111" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>0</v>
       </c>
@@ -47399,7 +47240,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="2:39">
+    <row r="112" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>0</v>
       </c>
@@ -47479,7 +47320,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="2:39">
+    <row r="113" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>13</v>
       </c>
@@ -47559,7 +47400,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="2:39">
+    <row r="114" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>20</v>
       </c>
@@ -47639,7 +47480,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="2:39">
+    <row r="115" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>25</v>
       </c>
@@ -47719,7 +47560,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="2:39">
+    <row r="116" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>28</v>
       </c>
@@ -47799,7 +47640,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="2:39">
+    <row r="117" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>31</v>
       </c>
@@ -47879,7 +47720,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="2:39">
+    <row r="118" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>34</v>
       </c>
@@ -47959,7 +47800,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="119" spans="2:39">
+    <row r="119" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>37</v>
       </c>
@@ -48039,7 +47880,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="2:39">
+    <row r="120" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>38</v>
       </c>
@@ -48119,7 +47960,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="121" spans="2:39">
+    <row r="121" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>40</v>
       </c>
@@ -48199,7 +48040,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="2:39">
+    <row r="122" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>41</v>
       </c>
@@ -48279,7 +48120,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="2:39">
+    <row r="123" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>43</v>
       </c>
@@ -48359,7 +48200,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="2:39">
+    <row r="124" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>44</v>
       </c>
@@ -48439,7 +48280,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="2:39">
+    <row r="125" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>45</v>
       </c>
@@ -48519,7 +48360,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="2:39">
+    <row r="126" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>46</v>
       </c>
@@ -48599,7 +48440,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="2:39">
+    <row r="127" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>47</v>
       </c>
@@ -48679,7 +48520,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="2:39">
+    <row r="128" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>48</v>
       </c>
@@ -48759,7 +48600,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>48</v>
       </c>
@@ -48839,7 +48680,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>49</v>
       </c>
@@ -48919,7 +48760,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>50</v>
       </c>
@@ -48999,7 +48840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>50</v>
       </c>
@@ -49079,7 +48920,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>50</v>
       </c>
@@ -49159,7 +49000,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>51</v>
       </c>
@@ -49239,7 +49080,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>51</v>
       </c>
@@ -49319,7 +49160,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>51</v>
       </c>
@@ -49399,7 +49240,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>51</v>
       </c>
@@ -49479,7 +49320,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>51</v>
       </c>
@@ -49559,7 +49400,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>51</v>
       </c>
@@ -49639,7 +49480,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>51</v>
       </c>
@@ -49719,7 +49560,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>51</v>
       </c>
@@ -49799,7 +49640,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>61</v>
       </c>
@@ -49825,7 +49666,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>58</v>
       </c>
@@ -49851,7 +49692,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>56</v>
       </c>
@@ -49877,7 +49718,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>54</v>
       </c>
@@ -49903,7 +49744,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>52</v>
       </c>
@@ -49929,7 +49770,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>51</v>
       </c>
@@ -49955,7 +49796,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>49</v>
       </c>
@@ -49981,7 +49822,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>159</v>
       </c>
@@ -50007,7 +49848,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>159</v>
       </c>
@@ -50033,7 +49874,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>159</v>
       </c>
@@ -50059,7 +49900,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>159</v>
       </c>
@@ -50085,7 +49926,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>159</v>
       </c>
@@ -50111,7 +49952,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>159</v>
       </c>
@@ -50137,7 +49978,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>159</v>
       </c>
@@ -50163,7 +50004,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>159</v>
       </c>
@@ -50189,7 +50030,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>159</v>
       </c>
@@ -50215,7 +50056,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>159</v>
       </c>
@@ -50241,7 +50082,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -50267,7 +50108,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -50293,7 +50134,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>159</v>
       </c>
@@ -50319,7 +50160,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>159</v>
       </c>
@@ -50345,7 +50186,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>159</v>
       </c>
@@ -50371,7 +50212,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>159</v>
       </c>
@@ -50397,7 +50238,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>159</v>
       </c>
@@ -50423,7 +50264,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>159</v>
       </c>
@@ -50449,7 +50290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>155</v>
       </c>
@@ -50475,7 +50316,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>150</v>
       </c>
@@ -50501,7 +50342,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>147</v>
       </c>
@@ -50527,7 +50368,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>145</v>
       </c>
@@ -50553,7 +50394,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>143</v>
       </c>
@@ -50579,7 +50420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>142</v>
       </c>
@@ -50605,7 +50446,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>141</v>
       </c>
@@ -50631,7 +50472,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>140</v>
       </c>
@@ -50657,7 +50498,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>139</v>
       </c>
@@ -50683,7 +50524,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>138</v>
       </c>
@@ -50709,7 +50550,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>138</v>
       </c>
@@ -50735,7 +50576,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>138</v>
       </c>
@@ -50761,7 +50602,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>137</v>
       </c>
@@ -50787,7 +50628,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>137</v>
       </c>
@@ -50813,7 +50654,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>137</v>
       </c>
@@ -50839,7 +50680,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>137</v>
       </c>
@@ -50865,7 +50706,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>138</v>
       </c>
@@ -50891,7 +50732,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>138</v>
       </c>
@@ -50917,7 +50758,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>138</v>
       </c>
@@ -50943,7 +50784,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>138</v>
       </c>
@@ -50969,7 +50810,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>139</v>
       </c>
@@ -50995,7 +50836,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>139</v>
       </c>
@@ -51021,7 +50862,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>140</v>
       </c>
@@ -51047,7 +50888,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>140</v>
       </c>
@@ -51073,7 +50914,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>141</v>
       </c>
@@ -51099,7 +50940,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>141</v>
       </c>
@@ -51125,7 +50966,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>142</v>
       </c>
@@ -51151,7 +50992,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>142</v>
       </c>
@@ -51177,7 +51018,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>143</v>
       </c>
@@ -51203,7 +51044,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>143</v>
       </c>
@@ -51229,7 +51070,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>144</v>
       </c>
@@ -51255,7 +51096,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>145</v>
       </c>
@@ -51281,7 +51122,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>145</v>
       </c>
@@ -51307,7 +51148,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>146</v>
       </c>
@@ -51333,7 +51174,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>146</v>
       </c>
@@ -51359,7 +51200,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>147</v>
       </c>
@@ -51385,7 +51226,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>147</v>
       </c>
@@ -51411,7 +51252,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>148</v>
       </c>
@@ -51437,7 +51278,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>148</v>
       </c>
@@ -51463,7 +51304,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>149</v>
       </c>
@@ -51489,7 +51330,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>149</v>
       </c>
@@ -51515,7 +51356,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>150</v>
       </c>
@@ -51541,7 +51382,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>151</v>
       </c>
@@ -51567,7 +51408,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>151</v>
       </c>
@@ -51593,7 +51434,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D212">
         <v>159</v>
       </c>
@@ -51616,7 +51457,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -51624,48 +51464,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648B726F-516E-4C11-AD84-AB99ED4A1061}">
   <dimension ref="N263:Q356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D230" zoomScale="60" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="Z203" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC204" sqref="AC204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="263" spans="14:14">
+    <row r="263" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N263">
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="14:14">
+    <row r="264" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N264">
         <v>86</v>
       </c>
     </row>
-    <row r="266" spans="14:14">
+    <row r="266" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N266">
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="14:14">
+    <row r="267" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N267">
         <v>68</v>
       </c>
     </row>
-    <row r="269" spans="14:14">
+    <row r="269" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N269">
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="14:14">
+    <row r="270" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N270">
         <v>81</v>
       </c>
     </row>
-    <row r="287" spans="14:14">
+    <row r="287" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N287">
         <v>36</v>
       </c>
     </row>
-    <row r="356" spans="17:17">
+    <row r="356" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q356" t="s">
         <v>0</v>
       </c>
